--- a/indicators/Vortex/Vortex.Calc.xlsx
+++ b/indicators/Vortex/Vortex.Calc.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7619C532-06C5-4B60-BF1B-F1F5ED19ABA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C47DF64-5F15-4E2F-94F5-E07BA73045AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vortex Indicator" sheetId="1" r:id="rId1"/>
@@ -39,25 +39,25 @@
     <t>TR14</t>
   </si>
   <si>
-    <t>+VI</t>
+    <t>output</t>
   </si>
   <si>
-    <t>-VI</t>
+    <t>VM+</t>
   </si>
   <si>
-    <t>+VM1</t>
+    <t>VM-</t>
   </si>
   <si>
-    <t>-VM1</t>
+    <t>VM14+</t>
   </si>
   <si>
-    <t>+VM14</t>
+    <t>VM14-</t>
   </si>
   <si>
-    <t>-VM14</t>
+    <t>VI+</t>
   </si>
   <si>
-    <t>output</t>
+    <t>VI-</t>
   </si>
 </sst>
 </file>
@@ -797,11 +797,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -859,6 +854,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1027,20 +1027,20 @@
     <tableColumn id="10" xr3:uid="{19456E19-9CA9-4A03-833A-D807C6801FFD}" name="TR" dataDxfId="12" dataCellStyle="Comma 2">
       <calculatedColumnFormula>MAX(testdata[[#This Row],[high]]-testdata[[#This Row],[low]],ABS(testdata[[#This Row],[high]]-E1),ABS(testdata[[#This Row],[low]]-E1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{696B87D5-9805-4E4C-8402-4CC3219FAF01}" name="+VM1" dataDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{696B87D5-9805-4E4C-8402-4CC3219FAF01}" name="VM+" dataDxfId="11" dataCellStyle="Currency">
       <calculatedColumnFormula>ABS(testdata[[#This Row],[high]]-D1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C4042823-F28D-400D-8F51-735EF9F976EE}" name="-VM1" dataDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{C4042823-F28D-400D-8F51-735EF9F976EE}" name="VM-" dataDxfId="10" dataCellStyle="Currency">
       <calculatedColumnFormula>ABS(testdata[[#This Row],[low]]-C1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{6E707A5E-AE5B-45FB-B439-A396F423639E}" name="TR14" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{120D13A6-6B7B-4AAD-9297-D57792A7AED6}" name="+VM14" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="15" xr3:uid="{C5FE1D64-146E-474C-967D-659A068163F5}" name="-VM14" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="16" xr3:uid="{6F94CAA0-247A-46EC-9B5D-0026CCA89E55}" name="+VI" dataDxfId="6" dataCellStyle="Comma">
-      <calculatedColumnFormula>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{6E707A5E-AE5B-45FB-B439-A396F423639E}" name="TR14" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{120D13A6-6B7B-4AAD-9297-D57792A7AED6}" name="VM14+" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="15" xr3:uid="{C5FE1D64-146E-474C-967D-659A068163F5}" name="VM14-" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="16" xr3:uid="{6F94CAA0-247A-46EC-9B5D-0026CCA89E55}" name="VI+" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{1C57182A-DA20-4C1A-999F-14852241BB86}" name="-VI" dataDxfId="5" dataCellStyle="Comma">
-      <calculatedColumnFormula>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{1C57182A-DA20-4C1A-999F-14852241BB86}" name="VI-" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1051,8 +1051,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9BB29804-55A6-41F6-882C-1BE8DB650C44}" name="Table2" displayName="Table2" ref="O1:Q503" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{33AFF1C0-F3FA-4119-9250-1A42F1D28D35}" name="date" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{2E497E7C-020A-446F-AB6F-4255C895161B}" name="+VI" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2E9F5963-78D7-4D6D-8196-067E6B890E67}" name="-VI" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{2E497E7C-020A-446F-AB6F-4255C895161B}" name="VI+" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2E9F5963-78D7-4D6D-8196-067E6B890E67}" name="VI-" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1394,37 +1394,37 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="M1" s="10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
         <v>7</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2005,11 +2005,11 @@
         <v>15.189999999999969</v>
       </c>
       <c r="L16" s="11">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0459647247461259</v>
       </c>
       <c r="M16" s="11">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81186531266702344</v>
       </c>
       <c r="O16" s="2">
@@ -2063,11 +2063,11 @@
         <v>15.399999999999977</v>
       </c>
       <c r="L17" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0438642297650134</v>
       </c>
       <c r="M17" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80417754569190691</v>
       </c>
       <c r="O17" s="2">
@@ -2121,11 +2121,11 @@
         <v>14.729999999999961</v>
       </c>
       <c r="L18" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0767181672882276</v>
       </c>
       <c r="M18" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78476291955247723</v>
       </c>
       <c r="O18" s="2">
@@ -2179,11 +2179,11 @@
         <v>14.989999999999952</v>
       </c>
       <c r="L19" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0449185850645728</v>
       </c>
       <c r="M19" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84166198764738898</v>
       </c>
       <c r="O19" s="2">
@@ -2237,11 +2237,11 @@
         <v>16.739999999999952</v>
       </c>
       <c r="L20" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92556468172484774</v>
       </c>
       <c r="M20" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85934291581108879</v>
       </c>
       <c r="O20" s="2">
@@ -2295,11 +2295,11 @@
         <v>17.499999999999972</v>
       </c>
       <c r="L21" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94099378881987639</v>
       </c>
       <c r="M21" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9057971014492755</v>
       </c>
       <c r="O21" s="2">
@@ -2353,11 +2353,11 @@
         <v>16.369999999999976</v>
       </c>
       <c r="L22" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9912641315519034</v>
       </c>
       <c r="M22" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84121274409044278</v>
       </c>
       <c r="O22" s="2">
@@ -2411,11 +2411,11 @@
         <v>16.019999999999982</v>
       </c>
       <c r="L23" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0348525469168921</v>
       </c>
       <c r="M23" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85898123324396924</v>
       </c>
       <c r="O23" s="2">
@@ -2469,11 +2469,11 @@
         <v>16.309999999999974</v>
       </c>
       <c r="L24" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0030753459764239</v>
       </c>
       <c r="M24" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8359815479241417</v>
       </c>
       <c r="O24" s="2">
@@ -2527,11 +2527,11 @@
         <v>15.75</v>
       </c>
       <c r="L25" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0644654088050309</v>
       </c>
       <c r="M25" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8254716981132082</v>
       </c>
       <c r="O25" s="2">
@@ -2585,11 +2585,11 @@
         <v>15.489999999999981</v>
       </c>
       <c r="L26" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0685504971219275</v>
       </c>
       <c r="M26" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81057038199895426</v>
       </c>
       <c r="O26" s="2">
@@ -2643,11 +2643,11 @@
         <v>15.449999999999989</v>
       </c>
       <c r="L27" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.074074074074074</v>
       </c>
       <c r="M27" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82930756843800413</v>
       </c>
       <c r="O27" s="2">
@@ -2701,11 +2701,11 @@
         <v>14.599999999999994</v>
       </c>
       <c r="L28" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0946088794926017</v>
       </c>
       <c r="M28" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77167019027484285</v>
       </c>
       <c r="O28" s="2">
@@ -2759,11 +2759,11 @@
         <v>12.990000000000009</v>
       </c>
       <c r="L29" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1867599569429512</v>
       </c>
       <c r="M29" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69913885898816142</v>
       </c>
       <c r="O29" s="2">
@@ -2817,11 +2817,11 @@
         <v>12.740000000000009</v>
       </c>
       <c r="L30" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1908941305540348</v>
       </c>
       <c r="M30" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6988480526604518</v>
       </c>
       <c r="O30" s="2">
@@ -2875,11 +2875,11 @@
         <v>13.189999999999998</v>
       </c>
       <c r="L31" s="11">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1300448430493319</v>
       </c>
       <c r="M31" s="11">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73934977578475425</v>
       </c>
       <c r="O31" s="2">
@@ -2933,11 +2933,11 @@
         <v>12.960000000000036</v>
       </c>
       <c r="L32" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1603823685608095</v>
       </c>
       <c r="M32" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68826340945300302</v>
       </c>
       <c r="O32" s="2">
@@ -2991,11 +2991,11 @@
         <v>13.28000000000003</v>
       </c>
       <c r="L33" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1914893617021307</v>
       </c>
       <c r="M33" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68915412558381117</v>
       </c>
       <c r="O33" s="2">
@@ -3049,11 +3049,11 @@
         <v>11.420000000000044</v>
       </c>
       <c r="L34" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3154960981047952</v>
       </c>
       <c r="M34" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63656633221850867</v>
       </c>
       <c r="O34" s="2">
@@ -3107,11 +3107,11 @@
         <v>10.05000000000004</v>
       </c>
       <c r="L35" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.374246575342468</v>
       </c>
       <c r="M35" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.55068493150685149</v>
       </c>
       <c r="O35" s="2">
@@ -3165,11 +3165,11 @@
         <v>10.240000000000038</v>
       </c>
       <c r="L36" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3773041474654404</v>
       </c>
       <c r="M36" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5898617511520764</v>
       </c>
       <c r="O36" s="2">
@@ -3223,11 +3223,11 @@
         <v>9.4900000000000091</v>
       </c>
       <c r="L37" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3681792073521002</v>
       </c>
       <c r="M37" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.545089029293511</v>
       </c>
       <c r="O37" s="2">
@@ -3281,11 +3281,11 @@
         <v>10.550000000000011</v>
       </c>
       <c r="L38" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3153258954785696</v>
       </c>
       <c r="M38" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61949500880798758</v>
       </c>
       <c r="O38" s="2">
@@ -3339,11 +3339,11 @@
         <v>10.02000000000001</v>
       </c>
       <c r="L39" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3595113438045403</v>
       </c>
       <c r="M39" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.58289703315881491</v>
       </c>
       <c r="O39" s="2">
@@ -3397,11 +3397,11 @@
         <v>10.670000000000016</v>
       </c>
       <c r="L40" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3200692041522519</v>
       </c>
       <c r="M40" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61534025374856005</v>
       </c>
       <c r="O40" s="2">
@@ -3455,11 +3455,11 @@
         <v>10.739999999999981</v>
       </c>
       <c r="L41" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3192982456140387</v>
       </c>
       <c r="M41" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.53834586466165424</v>
       </c>
       <c r="O41" s="2">
@@ -3513,11 +3513,11 @@
         <v>12.609999999999957</v>
       </c>
       <c r="L42" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2598385469223043</v>
       </c>
       <c r="M42" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.636226034308778</v>
       </c>
       <c r="O42" s="2">
@@ -3571,11 +3571,11 @@
         <v>14.039999999999964</v>
       </c>
       <c r="L43" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1883316274309128</v>
       </c>
       <c r="M43" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71852610030706088</v>
       </c>
       <c r="O43" s="2">
@@ -3629,11 +3629,11 @@
         <v>15.289999999999992</v>
       </c>
       <c r="L44" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0969072164948466</v>
       </c>
       <c r="M44" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78814432989690653</v>
       </c>
       <c r="O44" s="2">
@@ -3687,11 +3687,11 @@
         <v>15.719999999999999</v>
       </c>
       <c r="L45" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0815246161990482</v>
       </c>
       <c r="M45" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83218634197988406</v>
       </c>
       <c r="O45" s="2">
@@ -3745,11 +3745,11 @@
         <v>16.71999999999997</v>
       </c>
       <c r="L46" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0016295491580678</v>
       </c>
       <c r="M46" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90820206409560023</v>
       </c>
       <c r="O46" s="2">
@@ -3803,11 +3803,11 @@
         <v>17.289999999999964</v>
       </c>
       <c r="L47" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94513179128563829</v>
       </c>
       <c r="M47" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93006993006992933</v>
       </c>
       <c r="O47" s="2">
@@ -3861,11 +3861,11 @@
         <v>16.749999999999943</v>
       </c>
       <c r="L48" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98408488063660715</v>
       </c>
       <c r="M48" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88859416445623196</v>
       </c>
       <c r="O48" s="2">
@@ -3919,11 +3919,11 @@
         <v>17.089999999999947</v>
       </c>
       <c r="L49" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95647321428571574</v>
       </c>
       <c r="M49" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95368303571428492</v>
       </c>
       <c r="O49" s="2">
@@ -3977,11 +3977,11 @@
         <v>17.849999999999966</v>
       </c>
       <c r="L50" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86102236421725298</v>
       </c>
       <c r="M50" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95047923322683658</v>
       </c>
       <c r="O50" s="2">
@@ -4035,11 +4035,11 @@
         <v>16.97999999999999</v>
       </c>
       <c r="L51" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91516064257028262</v>
       </c>
       <c r="M51" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85240963855421692</v>
       </c>
       <c r="O51" s="2">
@@ -4093,11 +4093,11 @@
         <v>16.840000000000003</v>
       </c>
       <c r="L52" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96032553407935028</v>
       </c>
       <c r="M52" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8565615462868772</v>
       </c>
       <c r="O52" s="2">
@@ -4151,11 +4151,11 @@
         <v>17.5</v>
       </c>
       <c r="L53" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91344195519348481</v>
       </c>
       <c r="M53" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89103869653767753</v>
       </c>
       <c r="O53" s="2">
@@ -4209,11 +4209,11 @@
         <v>17.840000000000003</v>
       </c>
       <c r="L54" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90250127616130849</v>
       </c>
       <c r="M54" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91066870852475756</v>
       </c>
       <c r="O54" s="2">
@@ -4267,11 +4267,11 @@
         <v>20.080000000000041</v>
       </c>
       <c r="L55" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7502527805864514</v>
       </c>
       <c r="M55" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0151668351870582</v>
       </c>
       <c r="O55" s="2">
@@ -4325,11 +4325,11 @@
         <v>22.420000000000073</v>
       </c>
       <c r="L56" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74165824064711838</v>
       </c>
       <c r="M56" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1334681496461074</v>
       </c>
       <c r="O56" s="2">
@@ -4383,11 +4383,11 @@
         <v>21.630000000000081</v>
       </c>
       <c r="L57" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79951456310679681</v>
       </c>
       <c r="M57" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0500000000000014</v>
       </c>
       <c r="O57" s="2">
@@ -4441,11 +4441,11 @@
         <v>22.380000000000052</v>
       </c>
       <c r="L58" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82203389830508633</v>
       </c>
       <c r="M58" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0536723163841815</v>
       </c>
       <c r="O58" s="2">
@@ -4499,11 +4499,11 @@
         <v>24.34000000000006</v>
       </c>
       <c r="L59" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78549176680017885</v>
       </c>
       <c r="M59" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0832220738762794</v>
       </c>
       <c r="O59" s="2">
@@ -4557,11 +4557,11 @@
         <v>23.780000000000086</v>
       </c>
       <c r="L60" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87284934955937921</v>
       </c>
       <c r="M60" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99790180444817533</v>
       </c>
       <c r="O60" s="2">
@@ -4615,11 +4615,11 @@
         <v>23.020000000000095</v>
       </c>
       <c r="L61" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96119402985074653</v>
       </c>
       <c r="M61" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98166311300639753</v>
       </c>
       <c r="O61" s="2">
@@ -4673,11 +4673,11 @@
         <v>22.920000000000101</v>
       </c>
       <c r="L62" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94890510948905138</v>
       </c>
       <c r="M62" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9841133533705464</v>
       </c>
       <c r="O62" s="2">
@@ -4731,11 +4731,11 @@
         <v>22.980000000000103</v>
       </c>
       <c r="L63" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93997445721583683</v>
       </c>
       <c r="M63" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97828863346104888</v>
       </c>
       <c r="O63" s="2">
@@ -4789,11 +4789,11 @@
         <v>23.87000000000009</v>
       </c>
       <c r="L64" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93491864831038807</v>
       </c>
       <c r="M64" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99582811848143538</v>
       </c>
       <c r="O64" s="2">
@@ -4847,11 +4847,11 @@
         <v>25.220000000000084</v>
       </c>
       <c r="L65" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92812777284826975</v>
       </c>
       <c r="M65" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.118899733806566</v>
       </c>
       <c r="O65" s="2">
@@ -4905,11 +4905,11 @@
         <v>24.940000000000055</v>
       </c>
       <c r="L66" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90082644628099284</v>
       </c>
       <c r="M66" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0305785123966946</v>
       </c>
       <c r="O66" s="2">
@@ -4963,11 +4963,11 @@
         <v>26.670000000000044</v>
       </c>
       <c r="L67" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90056360708534644</v>
       </c>
       <c r="M67" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0736714975845414</v>
       </c>
       <c r="O67" s="2">
@@ -5021,11 +5021,11 @@
         <v>26.440000000000055</v>
       </c>
       <c r="L68" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93638170974154999</v>
       </c>
       <c r="M68" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0512922465208743</v>
       </c>
       <c r="O68" s="2">
@@ -5079,11 +5079,11 @@
         <v>24.060000000000059</v>
       </c>
       <c r="L69" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0478489903424058</v>
       </c>
       <c r="M69" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0561896400351185</v>
       </c>
       <c r="O69" s="2">
@@ -5137,11 +5137,11 @@
         <v>22.500000000000057</v>
       </c>
       <c r="L70" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0051724137931037</v>
       </c>
       <c r="M70" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96982758620689713</v>
       </c>
       <c r="O70" s="2">
@@ -5195,11 +5195,11 @@
         <v>22.880000000000052</v>
       </c>
       <c r="L71" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99604743083003944</v>
       </c>
       <c r="M71" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0048309178743968</v>
       </c>
       <c r="O71" s="2">
@@ -5253,11 +5253,11 @@
         <v>22.950000000000045</v>
       </c>
       <c r="L72" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97001763668430308</v>
       </c>
       <c r="M72" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0119047619047623</v>
       </c>
       <c r="O72" s="2">
@@ -5311,11 +5311,11 @@
         <v>21.230000000000047</v>
       </c>
       <c r="L73" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0267260579064585</v>
       </c>
       <c r="M73" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94565701559020066</v>
       </c>
       <c r="O73" s="2">
@@ -5369,11 +5369,11 @@
         <v>21.910000000000053</v>
       </c>
       <c r="L74" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9653233364573568</v>
       </c>
       <c r="M74" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0267104029990624</v>
       </c>
       <c r="O74" s="2">
@@ -5427,11 +5427,11 @@
         <v>22.120000000000061</v>
       </c>
       <c r="L75" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90268303774442893</v>
       </c>
       <c r="M75" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0059117780809457</v>
       </c>
       <c r="O75" s="2">
@@ -5485,11 +5485,11 @@
         <v>22.720000000000056</v>
       </c>
       <c r="L76" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89519272412299655</v>
       </c>
       <c r="M76" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98397574707665636</v>
       </c>
       <c r="O76" s="2">
@@ -5543,11 +5543,11 @@
         <v>23.55000000000004</v>
       </c>
       <c r="L77" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89296375266524475</v>
       </c>
       <c r="M77" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0042643923240924</v>
       </c>
       <c r="O77" s="2">
@@ -5601,11 +5601,11 @@
         <v>21.790000000000049</v>
       </c>
       <c r="L78" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98260149130074503</v>
       </c>
       <c r="M78" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90265120132560006</v>
       </c>
       <c r="O78" s="2">
@@ -5659,11 +5659,11 @@
         <v>20.770000000000039</v>
       </c>
       <c r="L79" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0579243765084458</v>
       </c>
       <c r="M79" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83547868061142316</v>
       </c>
       <c r="O79" s="2">
@@ -5717,11 +5717,11 @@
         <v>20.360000000000042</v>
       </c>
       <c r="L80" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0841924398625404</v>
       </c>
       <c r="M80" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87457044673539375</v>
       </c>
       <c r="O80" s="2">
@@ -5775,11 +5775,11 @@
         <v>19.020000000000039</v>
       </c>
       <c r="L81" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0758711954124378</v>
       </c>
       <c r="M81" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83899426554918299</v>
       </c>
       <c r="O81" s="2">
@@ -5833,11 +5833,11 @@
         <v>18.660000000000025</v>
       </c>
       <c r="L82" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0658307210031333</v>
       </c>
       <c r="M82" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83564711150917903</v>
       </c>
       <c r="O82" s="2">
@@ -5891,11 +5891,11 @@
         <v>18.150000000000006</v>
       </c>
       <c r="L83" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0698311273391132</v>
       </c>
       <c r="M83" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82838886353263175</v>
       </c>
       <c r="O83" s="2">
@@ -5949,11 +5949,11 @@
         <v>16.199999999999989</v>
       </c>
       <c r="L84" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1506053268765111</v>
       </c>
       <c r="M84" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78450363196125728</v>
       </c>
       <c r="O84" s="2">
@@ -6007,11 +6007,11 @@
         <v>16.079999999999956</v>
       </c>
       <c r="L85" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1080817916260939</v>
       </c>
       <c r="M85" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78286270691333693</v>
       </c>
       <c r="O85" s="2">
@@ -6065,11 +6065,11 @@
         <v>14.789999999999964</v>
       </c>
       <c r="L86" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1767088607594911</v>
       </c>
       <c r="M86" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74886075949366793</v>
       </c>
       <c r="O86" s="2">
@@ -6123,11 +6123,11 @@
         <v>13.489999999999981</v>
       </c>
       <c r="L87" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2317527970165119</v>
       </c>
       <c r="M87" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71870005327650255</v>
       </c>
       <c r="O87" s="2">
@@ -6181,11 +6181,11 @@
         <v>12.589999999999975</v>
       </c>
       <c r="L88" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.260243632336653</v>
       </c>
       <c r="M88" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6971207087486132</v>
       </c>
       <c r="O88" s="2">
@@ -6239,11 +6239,11 @@
         <v>12.179999999999978</v>
       </c>
       <c r="L89" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2564396107613025</v>
       </c>
       <c r="M89" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69719519175729594</v>
       </c>
       <c r="O89" s="2">
@@ -6297,11 +6297,11 @@
         <v>12.060000000000002</v>
       </c>
       <c r="L90" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2734719596723334</v>
       </c>
       <c r="M90" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75992438563326747</v>
       </c>
       <c r="O90" s="2">
@@ -6355,11 +6355,11 @@
         <v>12.090000000000032</v>
       </c>
       <c r="L91" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1697191697191656</v>
       </c>
       <c r="M91" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73809523809523636</v>
       </c>
       <c r="O91" s="2">
@@ -6413,11 +6413,11 @@
         <v>12.230000000000018</v>
       </c>
       <c r="L92" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2006944444444407</v>
       </c>
       <c r="M92" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84930555555555309</v>
       </c>
       <c r="O92" s="2">
@@ -6471,11 +6471,11 @@
         <v>11.870000000000033</v>
       </c>
       <c r="L93" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0503546099290744</v>
       </c>
       <c r="M93" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84184397163120328</v>
       </c>
       <c r="O93" s="2">
@@ -6529,11 +6529,11 @@
         <v>12.07000000000005</v>
       </c>
       <c r="L94" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0265042979942653</v>
       </c>
       <c r="M94" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86461318051575708</v>
       </c>
       <c r="O94" s="2">
@@ -6587,11 +6587,11 @@
         <v>15.260000000000076</v>
       </c>
       <c r="L95" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85764294049007794</v>
       </c>
       <c r="M95" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89031505250874921</v>
       </c>
       <c r="O95" s="2">
@@ -6645,11 +6645,11 @@
         <v>17.340000000000089</v>
       </c>
       <c r="L96" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85318107667210141</v>
       </c>
       <c r="M96" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94290375203915</v>
       </c>
       <c r="O96" s="2">
@@ -6703,11 +6703,11 @@
         <v>17.100000000000108</v>
       </c>
       <c r="L97" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91922290388547767</v>
       </c>
       <c r="M97" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87423312883435489</v>
       </c>
       <c r="O97" s="2">
@@ -6761,11 +6761,11 @@
         <v>16.530000000000115</v>
       </c>
       <c r="L98" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96543209876543012</v>
       </c>
       <c r="M98" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81629629629629619</v>
       </c>
       <c r="O98" s="2">
@@ -6819,11 +6819,11 @@
         <v>15.510000000000133</v>
       </c>
       <c r="L99" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0262096774193508</v>
       </c>
       <c r="M99" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78175403225806439</v>
       </c>
       <c r="O99" s="2">
@@ -6877,11 +6877,11 @@
         <v>14.770000000000152</v>
       </c>
       <c r="L100" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0435674013326464</v>
       </c>
       <c r="M100" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75704766786263611</v>
       </c>
       <c r="O100" s="2">
@@ -6935,11 +6935,11 @@
         <v>14.760000000000133</v>
       </c>
       <c r="L101" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0321285140562226</v>
       </c>
       <c r="M101" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74096385542168863</v>
       </c>
       <c r="O101" s="2">
@@ -6993,11 +6993,11 @@
         <v>14.840000000000117</v>
       </c>
       <c r="L102" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0325865580448041</v>
       </c>
       <c r="M102" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75560081466395213</v>
       </c>
       <c r="O102" s="2">
@@ -7051,11 +7051,11 @@
         <v>14.710000000000093</v>
       </c>
       <c r="L103" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0255874673629231</v>
       </c>
       <c r="M103" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7681462140992168</v>
       </c>
       <c r="O103" s="2">
@@ -7109,11 +7109,11 @@
         <v>14.810000000000088</v>
       </c>
       <c r="L104" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99490575649515933</v>
       </c>
       <c r="M104" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.754457463066736</v>
       </c>
       <c r="O104" s="2">
@@ -7167,11 +7167,11 @@
         <v>13.380000000000052</v>
       </c>
       <c r="L105" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0963673057517656</v>
       </c>
       <c r="M105" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67507568113017247</v>
       </c>
       <c r="O105" s="2">
@@ -7225,11 +7225,11 @@
         <v>12.82000000000005</v>
       </c>
       <c r="L106" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.135893648449039</v>
       </c>
       <c r="M106" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6312161496799612</v>
       </c>
       <c r="O106" s="2">
@@ -7283,11 +7283,11 @@
         <v>13.360000000000042</v>
       </c>
       <c r="L107" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1605764282038085</v>
       </c>
       <c r="M107" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68759650025733499</v>
       </c>
       <c r="O107" s="2">
@@ -7341,11 +7341,11 @@
         <v>13.710000000000036</v>
       </c>
       <c r="L108" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.121432278152569</v>
       </c>
       <c r="M108" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71146860404774415</v>
       </c>
       <c r="O108" s="2">
@@ -7399,11 +7399,11 @@
         <v>10.150000000000006</v>
       </c>
       <c r="L109" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3220234423195578</v>
       </c>
       <c r="M109" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62615669339913749</v>
       </c>
       <c r="O109" s="2">
@@ -7457,11 +7457,11 @@
         <v>7.8099999999999739</v>
       </c>
       <c r="L110" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3878226340172111</v>
       </c>
       <c r="M110" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5168762409000659</v>
       </c>
       <c r="O110" s="2">
@@ -7515,11 +7515,11 @@
         <v>9.6199999999999477</v>
       </c>
       <c r="L111" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2169512966476947</v>
       </c>
       <c r="M111" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6084756483238456</v>
       </c>
       <c r="O111" s="2">
@@ -7573,11 +7573,11 @@
         <v>11.859999999999928</v>
       </c>
       <c r="L112" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1849935316946978</v>
       </c>
       <c r="M112" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76714100905562665</v>
       </c>
       <c r="O112" s="2">
@@ -7631,11 +7631,11 @@
         <v>11.829999999999927</v>
       </c>
       <c r="L113" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1969887076537034</v>
       </c>
       <c r="M113" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74215809284818024</v>
       </c>
       <c r="O113" s="2">
@@ -7689,11 +7689,11 @@
         <v>12.779999999999916</v>
       </c>
       <c r="L114" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1474820143884903</v>
       </c>
       <c r="M114" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7661870503597108</v>
       </c>
       <c r="O114" s="2">
@@ -7747,11 +7747,11 @@
         <v>14.939999999999912</v>
       </c>
       <c r="L115" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0363210310486237</v>
       </c>
       <c r="M115" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87521968365553415</v>
       </c>
       <c r="O115" s="2">
@@ -7805,11 +7805,11 @@
         <v>15.37999999999991</v>
       </c>
       <c r="L116" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0331833520809903</v>
       </c>
       <c r="M116" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86501687289088769</v>
       </c>
       <c r="O116" s="2">
@@ -7863,11 +7863,11 @@
         <v>15.299999999999926</v>
       </c>
       <c r="L117" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0949400104329683</v>
       </c>
       <c r="M117" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79812206572769973</v>
       </c>
       <c r="O117" s="2">
@@ -7921,11 +7921,11 @@
         <v>15.869999999999919</v>
       </c>
       <c r="L118" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0745278203164887</v>
       </c>
       <c r="M118" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81010719754976956</v>
       </c>
       <c r="O118" s="2">
@@ -7979,11 +7979,11 @@
         <v>17.399999999999949</v>
       </c>
       <c r="L119" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0084835630965003</v>
       </c>
       <c r="M119" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92258748674443347</v>
       </c>
       <c r="O119" s="2">
@@ -8037,11 +8037,11 @@
         <v>18.009999999999934</v>
       </c>
       <c r="L120" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94648648648648726</v>
       </c>
       <c r="M120" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97351351351351445</v>
       </c>
       <c r="O120" s="2">
@@ -8095,11 +8095,11 @@
         <v>18.469999999999942</v>
       </c>
       <c r="L121" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90468667719852502</v>
       </c>
       <c r="M121" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97261716692996403</v>
       </c>
       <c r="O121" s="2">
@@ -8153,11 +8153,11 @@
         <v>17.799999999999926</v>
       </c>
       <c r="L122" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96658097686375422</v>
       </c>
       <c r="M122" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91516709511568062</v>
       </c>
       <c r="O122" s="2">
@@ -8211,11 +8211,11 @@
         <v>19.629999999999939</v>
       </c>
       <c r="L123" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90088321884200251</v>
       </c>
       <c r="M123" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96319921491658478</v>
       </c>
       <c r="O123" s="2">
@@ -8269,11 +8269,11 @@
         <v>20.009999999999962</v>
       </c>
       <c r="L124" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89187935034802823</v>
       </c>
       <c r="M124" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92853828306264641</v>
       </c>
       <c r="O124" s="2">
@@ -8327,11 +8327,11 @@
         <v>21.329999999999956</v>
       </c>
       <c r="L125" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84982014388489269</v>
       </c>
       <c r="M125" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95908273381295095</v>
       </c>
       <c r="O125" s="2">
@@ -8385,11 +8385,11 @@
         <v>20.889999999999958</v>
       </c>
       <c r="L126" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89268292682926853</v>
       </c>
       <c r="M126" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9263858093126397</v>
       </c>
       <c r="O126" s="2">
@@ -8443,11 +8443,11 @@
         <v>21.19999999999996</v>
       </c>
       <c r="L127" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86313948404022833</v>
       </c>
       <c r="M127" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92697857455181609</v>
       </c>
       <c r="O127" s="2">
@@ -8501,11 +8501,11 @@
         <v>21.549999999999955</v>
       </c>
       <c r="L128" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85234305923961284</v>
       </c>
       <c r="M128" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95269672855879894</v>
       </c>
       <c r="O128" s="2">
@@ -8559,11 +8559,11 @@
         <v>21.71999999999997</v>
       </c>
       <c r="L129" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82037996545768754</v>
       </c>
       <c r="M129" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93782383419689352</v>
       </c>
       <c r="O129" s="2">
@@ -8617,11 +8617,11 @@
         <v>22.069999999999993</v>
       </c>
       <c r="L130" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81453316434305245</v>
       </c>
       <c r="M130" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93240388677651387</v>
       </c>
       <c r="O130" s="2">
@@ -8675,11 +8675,11 @@
         <v>21.939999999999969</v>
       </c>
       <c r="L131" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8142920158800202</v>
       </c>
       <c r="M131" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9677988531098396</v>
       </c>
       <c r="O131" s="2">
@@ -8733,11 +8733,11 @@
         <v>22.139999999999958</v>
       </c>
       <c r="L132" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81365638766520043</v>
       </c>
       <c r="M132" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97533039647577324</v>
       </c>
       <c r="O132" s="2">
@@ -8791,11 +8791,11 @@
         <v>21.099999999999937</v>
       </c>
       <c r="L133" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89782886334610768</v>
       </c>
       <c r="M133" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89825457641549733</v>
       </c>
       <c r="O133" s="2">
@@ -8849,11 +8849,11 @@
         <v>20.619999999999976</v>
       </c>
       <c r="L134" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90641025641025741</v>
       </c>
       <c r="M134" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88119658119658317</v>
       </c>
       <c r="O134" s="2">
@@ -8907,11 +8907,11 @@
         <v>19.829999999999984</v>
       </c>
       <c r="L135" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93786488740617358</v>
       </c>
       <c r="M135" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82693911592994329</v>
       </c>
       <c r="O135" s="2">
@@ -8965,11 +8965,11 @@
         <v>19.990000000000009</v>
       </c>
       <c r="L136" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95397849462365736</v>
       </c>
       <c r="M136" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85978494623656165</v>
       </c>
       <c r="O136" s="2">
@@ -9023,11 +9023,11 @@
         <v>18.240000000000009</v>
       </c>
       <c r="L137" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99775583482944552</v>
       </c>
       <c r="M137" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81867145421903298</v>
       </c>
       <c r="O137" s="2">
@@ -9081,11 +9081,11 @@
         <v>17.430000000000007</v>
       </c>
       <c r="L138" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0413533834586493</v>
       </c>
       <c r="M138" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81907894736842357</v>
       </c>
       <c r="O138" s="2">
@@ -9139,11 +9139,11 @@
         <v>14.350000000000023</v>
       </c>
       <c r="L139" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1877353415814977</v>
       </c>
       <c r="M139" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7719203873050049</v>
       </c>
       <c r="O139" s="2">
@@ -9197,11 +9197,11 @@
         <v>13.480000000000047</v>
       </c>
       <c r="L140" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0935093509350959</v>
       </c>
       <c r="M140" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74147414741474371</v>
       </c>
       <c r="O140" s="2">
@@ -9255,11 +9255,11 @@
         <v>13.610000000000042</v>
       </c>
       <c r="L141" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.091118800461365</v>
       </c>
       <c r="M141" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78489042675894116</v>
       </c>
       <c r="O141" s="2">
@@ -9313,11 +9313,11 @@
         <v>12.190000000000026</v>
       </c>
       <c r="L142" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1514973576042302</v>
       </c>
       <c r="M142" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71579565472695394</v>
       </c>
       <c r="O142" s="2">
@@ -9371,11 +9371,11 @@
         <v>10.28000000000003</v>
       </c>
       <c r="L143" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2972620599739257</v>
       </c>
       <c r="M143" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67014341590612836</v>
       </c>
       <c r="O143" s="2">
@@ -9429,11 +9429,11 @@
         <v>10.900000000000034</v>
       </c>
       <c r="L144" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1874213836477991</v>
       </c>
       <c r="M144" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68553459119496796</v>
       </c>
       <c r="O144" s="2">
@@ -9487,11 +9487,11 @@
         <v>12.200000000000045</v>
       </c>
       <c r="L145" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1337099811676092</v>
       </c>
       <c r="M145" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76585059635907071</v>
       </c>
       <c r="O145" s="2">
@@ -9545,11 +9545,11 @@
         <v>10.84000000000006</v>
       </c>
       <c r="L146" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.222879684418146</v>
       </c>
       <c r="M146" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71268902038132897</v>
       </c>
       <c r="O146" s="2">
@@ -9603,11 +9603,11 @@
         <v>10.850000000000051</v>
       </c>
       <c r="L147" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1622775800711758</v>
       </c>
       <c r="M147" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77224199288256212</v>
       </c>
       <c r="O147" s="2">
@@ -9661,11 +9661,11 @@
         <v>11.510000000000048</v>
       </c>
       <c r="L148" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1050449205252268</v>
       </c>
       <c r="M148" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79543883897719447</v>
       </c>
       <c r="O148" s="2">
@@ -9719,11 +9719,11 @@
         <v>12.200000000000045</v>
       </c>
       <c r="L149" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0849816849816865</v>
       </c>
       <c r="M149" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89377289377289304</v>
       </c>
       <c r="O149" s="2">
@@ -9777,11 +9777,11 @@
         <v>11.940000000000026</v>
       </c>
       <c r="L150" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0359971202303835</v>
       </c>
       <c r="M150" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85961123110150928</v>
       </c>
       <c r="O150" s="2">
@@ -9835,11 +9835,11 @@
         <v>11.160000000000025</v>
       </c>
       <c r="L151" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1130239520958092</v>
       </c>
       <c r="M151" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83532934131736269</v>
       </c>
       <c r="O151" s="2">
@@ -9893,11 +9893,11 @@
         <v>11.870000000000033</v>
       </c>
       <c r="L152" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.002842928216062</v>
       </c>
       <c r="M152" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84363894811655604</v>
       </c>
       <c r="O152" s="2">
@@ -9951,11 +9951,11 @@
         <v>14.080000000000041</v>
       </c>
       <c r="L153" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92130919220055796</v>
       </c>
       <c r="M153" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98050139275765624</v>
       </c>
       <c r="O153" s="2">
@@ -10009,11 +10009,11 @@
         <v>16.340000000000032</v>
       </c>
       <c r="L154" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78113879003558828</v>
       </c>
       <c r="M154" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96915776986951152</v>
       </c>
       <c r="O154" s="2">
@@ -10067,11 +10067,11 @@
         <v>18.310000000000031</v>
       </c>
       <c r="L155" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78210342823939483</v>
       </c>
       <c r="M155" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0639163277164416</v>
       </c>
       <c r="O155" s="2">
@@ -10125,11 +10125,11 @@
         <v>18.84000000000006</v>
       </c>
       <c r="L156" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79266347687400351</v>
       </c>
       <c r="M156" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0015948963317385</v>
       </c>
       <c r="O156" s="2">
@@ -10183,11 +10183,11 @@
         <v>18.80000000000004</v>
       </c>
       <c r="L157" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82665964172813544</v>
       </c>
       <c r="M157" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99051633298208752</v>
       </c>
       <c r="O157" s="2">
@@ -10241,11 +10241,11 @@
         <v>17.310000000000002</v>
       </c>
       <c r="L158" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90863228699551601</v>
       </c>
       <c r="M158" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97029147982062769</v>
       </c>
       <c r="O158" s="2">
@@ -10299,11 +10299,11 @@
         <v>19.79000000000002</v>
       </c>
       <c r="L159" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73401659346022274</v>
       </c>
       <c r="M159" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96583699365544096</v>
       </c>
       <c r="O159" s="2">
@@ -10357,11 +10357,11 @@
         <v>23.480000000000018</v>
       </c>
       <c r="L160" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68854748603351901</v>
       </c>
       <c r="M160" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.093109869646181</v>
       </c>
       <c r="O160" s="2">
@@ -10415,11 +10415,11 @@
         <v>25.000000000000028</v>
       </c>
       <c r="L161" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67241379310344729</v>
       </c>
       <c r="M161" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1343012704174231</v>
       </c>
       <c r="O161" s="2">
@@ -10473,11 +10473,11 @@
         <v>24.250000000000028</v>
       </c>
       <c r="L162" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7497868712702459</v>
       </c>
       <c r="M162" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0336743393009387</v>
       </c>
       <c r="O162" s="2">
@@ -10531,11 +10531,11 @@
         <v>24.72</v>
       </c>
       <c r="L163" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75627090301003275</v>
       </c>
       <c r="M163" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0334448160535121</v>
       </c>
       <c r="O163" s="2">
@@ -10589,11 +10589,11 @@
         <v>25.610000000000014</v>
       </c>
       <c r="L164" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73306122448979483</v>
       </c>
       <c r="M164" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0453061224489815</v>
       </c>
       <c r="O164" s="2">
@@ -10647,11 +10647,11 @@
         <v>25.97</v>
       </c>
       <c r="L165" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73846755277560472</v>
       </c>
       <c r="M165" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0152462861610638</v>
       </c>
       <c r="O165" s="2">
@@ -10705,11 +10705,11 @@
         <v>26.429999999999978</v>
       </c>
       <c r="L166" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73844282238442716</v>
       </c>
       <c r="M166" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0717761557177621</v>
       </c>
       <c r="O166" s="2">
@@ -10763,11 +10763,11 @@
         <v>25.889999999999986</v>
       </c>
       <c r="L167" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73309886674482039</v>
       </c>
       <c r="M167" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0117233294255572</v>
       </c>
       <c r="O167" s="2">
@@ -10821,11 +10821,11 @@
         <v>22.95999999999998</v>
       </c>
       <c r="L168" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90771812080536829</v>
       </c>
       <c r="M168" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96308724832214776</v>
       </c>
       <c r="O168" s="2">
@@ -10879,11 +10879,11 @@
         <v>20.649999999999977</v>
       </c>
       <c r="L169" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9628722970216228</v>
       </c>
       <c r="M169" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84251325989392023</v>
       </c>
       <c r="O169" s="2">
@@ -10937,11 +10937,11 @@
         <v>20.039999999999964</v>
       </c>
       <c r="L170" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0043917435221756</v>
       </c>
       <c r="M170" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88010540184453023</v>
       </c>
       <c r="O170" s="2">
@@ -10995,11 +10995,11 @@
         <v>22.659999999999968</v>
       </c>
       <c r="L171" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87499999999999767</v>
       </c>
       <c r="M171" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91666666666666441</v>
       </c>
       <c r="O171" s="2">
@@ -11053,11 +11053,11 @@
         <v>23.369999999999976</v>
       </c>
       <c r="L172" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90689238210398804</v>
       </c>
       <c r="M172" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94195888754534252</v>
       </c>
       <c r="O172" s="2">
@@ -11111,11 +11111,11 @@
         <v>19.939999999999969</v>
       </c>
       <c r="L173" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0628129267182507</v>
       </c>
       <c r="M173" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90760127446517724</v>
       </c>
       <c r="O173" s="2">
@@ -11169,11 +11169,11 @@
         <v>16.669999999999987</v>
       </c>
       <c r="L174" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1026378896882472</v>
       </c>
       <c r="M174" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79952038369304412</v>
       </c>
       <c r="O174" s="2">
@@ -11227,11 +11227,11 @@
         <v>15.289999999999992</v>
       </c>
       <c r="L175" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1246612466124641</v>
       </c>
       <c r="M175" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69060523938572549</v>
       </c>
       <c r="O175" s="2">
@@ -11285,11 +11285,11 @@
         <v>15.069999999999965</v>
       </c>
       <c r="L176" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1408243375858669</v>
       </c>
       <c r="M176" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73945044160941742</v>
       </c>
       <c r="O176" s="2">
@@ -11343,11 +11343,11 @@
         <v>14.159999999999997</v>
       </c>
       <c r="L177" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1427848101265801</v>
       </c>
       <c r="M177" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71696202531645348</v>
       </c>
       <c r="O177" s="2">
@@ -11401,11 +11401,11 @@
         <v>13.499999999999972</v>
       </c>
       <c r="L178" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1693759832197159</v>
       </c>
       <c r="M178" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7079181961195562</v>
       </c>
       <c r="O178" s="2">
@@ -11459,11 +11459,11 @@
         <v>13.22999999999999</v>
       </c>
       <c r="L179" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1757276221856112</v>
       </c>
       <c r="M179" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72652388797363887</v>
       </c>
       <c r="O179" s="2">
@@ -11517,11 +11517,11 @@
         <v>11.789999999999992</v>
       </c>
       <c r="L180" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2256097560975603</v>
       </c>
       <c r="M180" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65354767184035356</v>
       </c>
       <c r="O180" s="2">
@@ -11575,11 +11575,11 @@
         <v>10.119999999999976</v>
       </c>
       <c r="L181" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3347587049480745</v>
       </c>
       <c r="M181" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61820403176542182</v>
       </c>
       <c r="O181" s="2">
@@ -11633,11 +11633,11 @@
         <v>10.70999999999998</v>
       </c>
       <c r="L182" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2017543859649118</v>
       </c>
       <c r="M182" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67105263157894457</v>
       </c>
       <c r="O182" s="2">
@@ -11691,11 +11691,11 @@
         <v>11.409999999999997</v>
       </c>
       <c r="L183" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1376571806750482</v>
       </c>
       <c r="M183" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75512905360688054</v>
       </c>
       <c r="O183" s="2">
@@ -11749,11 +11749,11 @@
         <v>12.22999999999999</v>
       </c>
       <c r="L184" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0369375419744802</v>
       </c>
       <c r="M184" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82135661517797032</v>
       </c>
       <c r="O184" s="2">
@@ -11807,11 +11807,11 @@
         <v>10.489999999999981</v>
       </c>
       <c r="L185" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1667896678966783</v>
       </c>
       <c r="M185" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77416974169741493</v>
       </c>
       <c r="O185" s="2">
@@ -11865,11 +11865,11 @@
         <v>9.9799999999999898</v>
       </c>
       <c r="L186" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.142641509433961</v>
       </c>
       <c r="M186" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75320754716980898</v>
       </c>
       <c r="O186" s="2">
@@ -11923,11 +11923,11 @@
         <v>9.9399999999999977</v>
       </c>
       <c r="L187" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1280400572246059</v>
       </c>
       <c r="M187" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71101573676680863</v>
       </c>
       <c r="O187" s="2">
@@ -11981,11 +11981,11 @@
         <v>9.8499999999999943</v>
       </c>
       <c r="L188" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1865618298784835</v>
       </c>
       <c r="M188" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.70407433881343728</v>
       </c>
       <c r="O188" s="2">
@@ -12039,11 +12039,11 @@
         <v>9.2799999999999727</v>
       </c>
       <c r="L189" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2258579409417385</v>
       </c>
       <c r="M189" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74062250598563228</v>
       </c>
       <c r="O189" s="2">
@@ -12097,11 +12097,11 @@
         <v>9.1899999999999693</v>
       </c>
       <c r="L190" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2168106834249799</v>
       </c>
       <c r="M190" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72191673212882768</v>
       </c>
       <c r="O190" s="2">
@@ -12155,11 +12155,11 @@
         <v>8.7999999999999545</v>
       </c>
       <c r="L191" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2730829420970251</v>
       </c>
       <c r="M191" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68857589984350187</v>
       </c>
       <c r="O191" s="2">
@@ -12213,11 +12213,11 @@
         <v>8.539999999999992</v>
       </c>
       <c r="L192" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2938901778808936</v>
       </c>
       <c r="M192" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.66047950502706787</v>
       </c>
       <c r="O192" s="2">
@@ -12271,11 +12271,11 @@
         <v>8.2799999999999727</v>
       </c>
       <c r="L193" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.304379562043795</v>
       </c>
       <c r="M193" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.60437956204379417</v>
       </c>
       <c r="O193" s="2">
@@ -12329,11 +12329,11 @@
         <v>9.0599999999999739</v>
       </c>
       <c r="L194" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3091042584434638</v>
       </c>
       <c r="M194" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6651982378854604</v>
       </c>
       <c r="O194" s="2">
@@ -12387,11 +12387,11 @@
         <v>9.5699999999999648</v>
       </c>
       <c r="L195" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2616361071932309</v>
       </c>
       <c r="M195" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67489421720733278</v>
       </c>
       <c r="O195" s="2">
@@ -12445,11 +12445,11 @@
         <v>9.1599999999999682</v>
       </c>
       <c r="L196" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3316690442225381</v>
       </c>
       <c r="M196" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65335235378031242</v>
       </c>
       <c r="O196" s="2">
@@ -12503,11 +12503,11 @@
         <v>8.8999999999999773</v>
       </c>
       <c r="L197" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3455988455988455</v>
       </c>
       <c r="M197" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64213564213564123</v>
       </c>
       <c r="O197" s="2">
@@ -12561,11 +12561,11 @@
         <v>8.6099999999999852</v>
       </c>
       <c r="L198" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3577060931899652</v>
       </c>
       <c r="M198" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61720430107526825</v>
       </c>
       <c r="O198" s="2">
@@ -12619,11 +12619,11 @@
         <v>7.539999999999992</v>
       </c>
       <c r="L199" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.4676806083650193</v>
       </c>
       <c r="M199" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.57338403041825015</v>
       </c>
       <c r="O199" s="2">
@@ -12677,11 +12677,11 @@
         <v>7.25</v>
       </c>
       <c r="L200" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.435521235521237</v>
       </c>
       <c r="M200" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.55984555984556039</v>
       </c>
       <c r="O200" s="2">
@@ -12735,11 +12735,11 @@
         <v>6.9599999999999795</v>
       </c>
       <c r="L201" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.4811083123425721</v>
       </c>
       <c r="M201" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5843828715365238</v>
       </c>
       <c r="O201" s="2">
@@ -12793,11 +12793,11 @@
         <v>6.1499999999999488</v>
       </c>
       <c r="L202" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.4719585849870624</v>
       </c>
       <c r="M202" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.53062985332182722</v>
       </c>
       <c r="O202" s="2">
@@ -12851,11 +12851,11 @@
         <v>7.3899999999999579</v>
       </c>
       <c r="L203" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3268744734625115</v>
       </c>
       <c r="M203" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62257792754844066</v>
       </c>
       <c r="O203" s="2">
@@ -12909,11 +12909,11 @@
         <v>7.4199999999999591</v>
       </c>
       <c r="L204" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3451400329489303</v>
       </c>
       <c r="M204" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61120263591433155</v>
       </c>
       <c r="O204" s="2">
@@ -12967,11 +12967,11 @@
         <v>8.3999999999999488</v>
       </c>
       <c r="L205" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2739938080495388</v>
       </c>
       <c r="M205" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65015479876160942</v>
       </c>
       <c r="O205" s="2">
@@ -13025,11 +13025,11 @@
         <v>9.3799999999999386</v>
       </c>
       <c r="L206" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2584181675802686</v>
       </c>
       <c r="M206" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73453406421299872</v>
       </c>
       <c r="O206" s="2">
@@ -13083,11 +13083,11 @@
         <v>11.859999999999957</v>
       </c>
       <c r="L207" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0312499999999984</v>
       </c>
       <c r="M207" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86191860465116199</v>
       </c>
       <c r="O207" s="2">
@@ -13141,11 +13141,11 @@
         <v>11.859999999999957</v>
       </c>
       <c r="L208" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0747663551401865</v>
       </c>
       <c r="M208" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85262401150251499</v>
       </c>
       <c r="O208" s="2">
@@ -13199,11 +13199,11 @@
         <v>11.489999999999981</v>
       </c>
       <c r="L209" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0908488063660462</v>
       </c>
       <c r="M209" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76193633952254591</v>
       </c>
       <c r="O209" s="2">
@@ -13257,11 +13257,11 @@
         <v>12.219999999999999</v>
       </c>
       <c r="L210" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1133682830930531</v>
       </c>
       <c r="M210" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80078636959370941</v>
       </c>
       <c r="O210" s="2">
@@ -13315,11 +13315,11 @@
         <v>12.279999999999973</v>
       </c>
       <c r="L211" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1127129750982983</v>
       </c>
       <c r="M211" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80471821756225448</v>
       </c>
       <c r="O211" s="2">
@@ -13373,11 +13373,11 @@
         <v>12.009999999999962</v>
       </c>
       <c r="L212" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.121460037759598</v>
       </c>
       <c r="M212" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75582127123977305</v>
       </c>
       <c r="O212" s="2">
@@ -13431,11 +13431,11 @@
         <v>13.739999999999952</v>
       </c>
       <c r="L213" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0494931425163994</v>
       </c>
       <c r="M213" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81932021466905269</v>
       </c>
       <c r="O213" s="2">
@@ -13489,11 +13489,11 @@
         <v>13.739999999999924</v>
       </c>
       <c r="L214" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0990730011587495</v>
       </c>
       <c r="M214" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79606025492468124</v>
       </c>
       <c r="O214" s="2">
@@ -13547,11 +13547,11 @@
         <v>13.499999999999915</v>
       </c>
       <c r="L215" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1395082904516871</v>
       </c>
       <c r="M215" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77186963979416656</v>
       </c>
       <c r="O215" s="2">
@@ -13605,11 +13605,11 @@
         <v>14.349999999999937</v>
       </c>
       <c r="L216" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1014254385964912</v>
       </c>
       <c r="M216" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78673245614034948</v>
       </c>
       <c r="O216" s="2">
@@ -13663,11 +13663,11 @@
         <v>13.959999999999951</v>
       </c>
       <c r="L217" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1692825112107634</v>
       </c>
       <c r="M217" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78251121076233143</v>
       </c>
       <c r="O217" s="2">
@@ -13721,11 +13721,11 @@
         <v>16.649999999999949</v>
       </c>
       <c r="L218" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96035472091810148</v>
       </c>
       <c r="M218" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86854460093896757</v>
       </c>
       <c r="O218" s="2">
@@ -13779,11 +13779,11 @@
         <v>16.559999999999945</v>
       </c>
       <c r="L219" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99838969404186784</v>
       </c>
       <c r="M219" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="O219" s="2">
@@ -13837,11 +13837,11 @@
         <v>16.239999999999924</v>
       </c>
       <c r="L220" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98906819364914211</v>
       </c>
       <c r="M220" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84539302446642317</v>
       </c>
       <c r="O220" s="2">
@@ -13895,11 +13895,11 @@
         <v>15.519999999999897</v>
       </c>
       <c r="L221" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0491891891891925</v>
       </c>
       <c r="M221" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83891891891891845</v>
       </c>
       <c r="O221" s="2">
@@ -13953,11 +13953,11 @@
         <v>16.859999999999928</v>
       </c>
       <c r="L222" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91508951406649586</v>
       </c>
       <c r="M222" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86240409207161206</v>
       </c>
       <c r="O222" s="2">
@@ -14011,11 +14011,11 @@
         <v>16.459999999999923</v>
       </c>
       <c r="L223" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94914400805639498</v>
       </c>
       <c r="M223" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82880161127895291</v>
       </c>
       <c r="O223" s="2">
@@ -14069,11 +14069,11 @@
         <v>16.259999999999906</v>
       </c>
       <c r="L224" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92746913580246892</v>
       </c>
       <c r="M224" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83641975308641991</v>
       </c>
       <c r="O224" s="2">
@@ -14127,11 +14127,11 @@
         <v>16.199999999999903</v>
       </c>
       <c r="L225" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91550747037609348</v>
       </c>
       <c r="M225" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83462132921174659</v>
       </c>
       <c r="O225" s="2">
@@ -14185,11 +14185,11 @@
         <v>16.099999999999909</v>
       </c>
       <c r="L226" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92438657986980344</v>
       </c>
       <c r="M226" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80620931397095541</v>
       </c>
       <c r="O226" s="2">
@@ -14243,11 +14243,11 @@
         <v>14.559999999999945</v>
       </c>
       <c r="L227" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0310036784025212</v>
       </c>
       <c r="M227" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76510772464529631</v>
       </c>
       <c r="O227" s="2">
@@ -14301,11 +14301,11 @@
         <v>14.139999999999958</v>
       </c>
       <c r="L228" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9843834141087765</v>
       </c>
       <c r="M228" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76144318793753285</v>
       </c>
       <c r="O228" s="2">
@@ -14359,11 +14359,11 @@
         <v>14.329999999999984</v>
       </c>
       <c r="L229" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9288025889967626</v>
       </c>
       <c r="M229" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7729234088457384</v>
       </c>
       <c r="O229" s="2">
@@ -14417,11 +14417,11 @@
         <v>13.549999999999983</v>
       </c>
       <c r="L230" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95072900955253936</v>
       </c>
       <c r="M230" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68124685771744653</v>
       </c>
       <c r="O230" s="2">
@@ -14475,11 +14475,11 @@
         <v>13.069999999999965</v>
       </c>
       <c r="L231" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0217391304347825</v>
       </c>
       <c r="M231" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64575098814229137</v>
       </c>
       <c r="O231" s="2">
@@ -14533,11 +14533,11 @@
         <v>10.369999999999976</v>
       </c>
       <c r="L232" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1605769230769234</v>
       </c>
       <c r="M232" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.49855769230769159</v>
       </c>
       <c r="O232" s="2">
@@ -14591,11 +14591,11 @@
         <v>14.45999999999998</v>
       </c>
       <c r="L233" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98270181219110431</v>
       </c>
       <c r="M233" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5955518945634265</v>
       </c>
       <c r="O233" s="2">
@@ -14649,11 +14649,11 @@
         <v>14.659999999999968</v>
       </c>
       <c r="L234" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1116751269035539</v>
       </c>
       <c r="M234" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.57243264349863243</v>
       </c>
       <c r="O234" s="2">
@@ -14707,11 +14707,11 @@
         <v>16.269999999999982</v>
       </c>
       <c r="L235" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1174198532251831</v>
       </c>
       <c r="M235" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62842796446504401</v>
       </c>
       <c r="O235" s="2">
@@ -14765,11 +14765,11 @@
         <v>16.469999999999942</v>
       </c>
       <c r="L236" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1633802816901424</v>
       </c>
       <c r="M236" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6627766599597571</v>
       </c>
       <c r="O236" s="2">
@@ -14823,11 +14823,11 @@
         <v>16.979999999999933</v>
       </c>
       <c r="L237" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1471825063078231</v>
       </c>
       <c r="M237" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71404541631623097</v>
       </c>
       <c r="O237" s="2">
@@ -14881,11 +14881,11 @@
         <v>16.13999999999993</v>
       </c>
       <c r="L238" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1758917589175903</v>
       </c>
       <c r="M238" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.66174661746617292</v>
       </c>
       <c r="O238" s="2">
@@ -14939,11 +14939,11 @@
         <v>15.479999999999961</v>
       </c>
       <c r="L239" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2271434376269812</v>
       </c>
       <c r="M239" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62901259650548436</v>
       </c>
       <c r="O239" s="2">
@@ -14997,11 +14997,11 @@
         <v>15.249999999999972</v>
       </c>
       <c r="L240" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2534795444959945</v>
       </c>
       <c r="M240" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64318852804723758</v>
       </c>
       <c r="O240" s="2">
@@ -15055,11 +15055,11 @@
         <v>15.289999999999935</v>
       </c>
       <c r="L241" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2097378277153572</v>
       </c>
       <c r="M241" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63628797336662379</v>
       </c>
       <c r="O241" s="2">
@@ -15113,11 +15113,11 @@
         <v>17.149999999999949</v>
       </c>
       <c r="L242" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1550823623945368</v>
       </c>
       <c r="M242" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68903173965447884</v>
       </c>
       <c r="O242" s="2">
@@ -15171,11 +15171,11 @@
         <v>17.149999999999949</v>
       </c>
       <c r="L243" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1514925373134344</v>
       </c>
       <c r="M243" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63992537313432818</v>
       </c>
       <c r="O243" s="2">
@@ -15229,11 +15229,11 @@
         <v>17.96999999999997</v>
       </c>
       <c r="L244" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1873571972581884</v>
       </c>
       <c r="M244" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68431073876618487</v>
       </c>
       <c r="O244" s="2">
@@ -15287,11 +15287,11 @@
         <v>18.759999999999962</v>
       </c>
       <c r="L245" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0981735159817358</v>
       </c>
       <c r="M245" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71385083713850928</v>
       </c>
       <c r="O245" s="2">
@@ -15345,11 +15345,11 @@
         <v>20.489999999999952</v>
       </c>
       <c r="L246" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0693430656934313</v>
       </c>
       <c r="M246" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83090024330900347</v>
       </c>
       <c r="O246" s="2">
@@ -15403,11 +15403,11 @@
         <v>16.419999999999959</v>
       </c>
       <c r="L247" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2230448866265622</v>
       </c>
       <c r="M247" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75983341045812192</v>
       </c>
       <c r="O247" s="2">
@@ -15461,11 +15461,11 @@
         <v>16.669999999999987</v>
       </c>
       <c r="L248" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0638945233265718</v>
       </c>
       <c r="M248" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84533468559838032</v>
       </c>
       <c r="O248" s="2">
@@ -15519,11 +15519,11 @@
         <v>13.799999999999955</v>
       </c>
       <c r="L249" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1185144729655943</v>
       </c>
       <c r="M249" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75368651010377052</v>
       </c>
       <c r="O249" s="2">
@@ -15577,11 +15577,11 @@
         <v>11.88999999999993</v>
       </c>
       <c r="L250" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1441241685144146</v>
       </c>
       <c r="M250" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65909090909090962</v>
       </c>
       <c r="O250" s="2">
@@ -15635,11 +15635,11 @@
         <v>11.409999999999968</v>
       </c>
       <c r="L251" s="11">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1558139534883713</v>
       </c>
       <c r="M251" s="11">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.66337209302325661</v>
       </c>
       <c r="O251" s="2">
@@ -15693,11 +15693,11 @@
         <v>12.259999999999991</v>
       </c>
       <c r="L252" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0488358886996036</v>
       </c>
       <c r="M252" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69619534355480184</v>
       </c>
       <c r="O252" s="2">
@@ -15751,11 +15751,11 @@
         <v>13.329999999999927</v>
       </c>
       <c r="L253" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98282340311325844</v>
       </c>
       <c r="M253" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71551261406333933</v>
       </c>
       <c r="O253" s="2">
@@ -15809,11 +15809,11 @@
         <v>13.439999999999969</v>
       </c>
       <c r="L254" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0102722136620437</v>
       </c>
       <c r="M254" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69029275808936974</v>
       </c>
       <c r="O254" s="2">
@@ -15867,11 +15867,11 @@
         <v>12.890000000000015</v>
       </c>
       <c r="L255" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0677546983184956</v>
       </c>
       <c r="M255" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63748763600395997</v>
       </c>
       <c r="O255" s="2">
@@ -15925,11 +15925,11 @@
         <v>11.219999999999999</v>
       </c>
       <c r="L256" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1649635036496333</v>
       </c>
       <c r="M256" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.54598540145985519</v>
       </c>
       <c r="O256" s="2">
@@ -15983,11 +15983,11 @@
         <v>11.319999999999993</v>
       </c>
       <c r="L257" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2278947368421036</v>
       </c>
       <c r="M257" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.59578947368421198</v>
       </c>
       <c r="O257" s="2">
@@ -16041,11 +16041,11 @@
         <v>10.42999999999995</v>
       </c>
       <c r="L258" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2278203723986809</v>
       </c>
       <c r="M258" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5711938663745868</v>
       </c>
       <c r="O258" s="2">
@@ -16099,11 +16099,11 @@
         <v>11.20999999999998</v>
       </c>
       <c r="L259" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2056429734129086</v>
       </c>
       <c r="M259" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.60824742268041099</v>
       </c>
       <c r="O259" s="2">
@@ -16157,11 +16157,11 @@
         <v>9.5799999999999841</v>
       </c>
       <c r="L260" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2832800851970112</v>
       </c>
       <c r="M260" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.51011714589989188</v>
       </c>
       <c r="O260" s="2">
@@ -16215,11 +16215,11 @@
         <v>8.6200000000000045</v>
       </c>
       <c r="L261" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.332475553268134</v>
       </c>
       <c r="M261" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.44364384971693138</v>
       </c>
       <c r="O261" s="2">
@@ -16273,11 +16273,11 @@
         <v>9.0500000000000114</v>
       </c>
       <c r="L262" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3087188612099583</v>
       </c>
       <c r="M262" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.40258007117437639</v>
       </c>
       <c r="O262" s="2">
@@ -16331,11 +16331,11 @@
         <v>11.32000000000005</v>
       </c>
       <c r="L263" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3137333870318084</v>
       </c>
       <c r="M263" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.45590012082158599</v>
       </c>
       <c r="O263" s="2">
@@ -16389,11 +16389,11 @@
         <v>12.310000000000116</v>
       </c>
       <c r="L264" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3621366849960646</v>
       </c>
       <c r="M264" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.48350353495679665</v>
       </c>
       <c r="O264" s="2">
@@ -16447,11 +16447,11 @@
         <v>12.830000000000041</v>
       </c>
       <c r="L265" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3624521072796894</v>
       </c>
       <c r="M265" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.49157088122605369</v>
       </c>
       <c r="O265" s="2">
@@ -16505,11 +16505,11 @@
         <v>11.890000000000043</v>
       </c>
       <c r="L266" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.4175700934579363</v>
       </c>
       <c r="M266" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.44448598130841094</v>
       </c>
       <c r="O266" s="2">
@@ -16563,11 +16563,11 @@
         <v>11.090000000000089</v>
       </c>
       <c r="L267" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.5040276179516605</v>
       </c>
       <c r="M267" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.425393172228616</v>
       </c>
       <c r="O267" s="2">
@@ -16621,11 +16621,11 @@
         <v>12.660000000000082</v>
       </c>
       <c r="L268" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.4185788304959224</v>
       </c>
       <c r="M268" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.46854182087342749</v>
       </c>
       <c r="O268" s="2">
@@ -16679,11 +16679,11 @@
         <v>14.78000000000003</v>
       </c>
       <c r="L269" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3819852941176423</v>
       </c>
       <c r="M269" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.54338235294117443</v>
       </c>
       <c r="O269" s="2">
@@ -16737,11 +16737,11 @@
         <v>14.880000000000052</v>
       </c>
       <c r="L270" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3585699263932678</v>
       </c>
       <c r="M270" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.52155625657202964</v>
       </c>
       <c r="O270" s="2">
@@ -16795,11 +16795,11 @@
         <v>16.370000000000061</v>
       </c>
       <c r="L271" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3266553480475354</v>
       </c>
       <c r="M271" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.55585738539898144</v>
       </c>
       <c r="O271" s="2">
@@ -16853,11 +16853,11 @@
         <v>21.370000000000061</v>
       </c>
       <c r="L272" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1758555133079849</v>
       </c>
       <c r="M272" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67712294043092591</v>
       </c>
       <c r="O272" s="2">
@@ -16911,11 +16911,11 @@
         <v>23.040000000000077</v>
       </c>
       <c r="L273" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1924969249692488</v>
       </c>
       <c r="M273" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.70848708487084899</v>
       </c>
       <c r="O273" s="2">
@@ -16969,11 +16969,11 @@
         <v>25.42000000000013</v>
       </c>
       <c r="L274" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.155413625304136</v>
       </c>
       <c r="M274" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77311435523114491</v>
       </c>
       <c r="O274" s="2">
@@ -17027,11 +17027,11 @@
         <v>32.750000000000114</v>
       </c>
       <c r="L275" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94928125847572697</v>
       </c>
       <c r="M275" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88825603471657333</v>
       </c>
       <c r="O275" s="2">
@@ -17085,11 +17085,11 @@
         <v>47.190000000000083</v>
       </c>
       <c r="L276" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69860588625802278</v>
       </c>
       <c r="M276" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0442575791104225</v>
       </c>
       <c r="O276" s="2">
@@ -17143,11 +17143,11 @@
         <v>60.710000000000093</v>
       </c>
       <c r="L277" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64376301343933462</v>
       </c>
       <c r="M277" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1491576755631279</v>
       </c>
       <c r="O277" s="2">
@@ -17201,11 +17201,11 @@
         <v>61.35000000000008</v>
       </c>
       <c r="L278" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78934236321511353</v>
       </c>
       <c r="M278" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0933879878809483</v>
       </c>
       <c r="O278" s="2">
@@ -17259,11 +17259,11 @@
         <v>74.790000000000106</v>
       </c>
       <c r="L279" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.66226183159188745</v>
       </c>
       <c r="M279" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1492009834050403</v>
       </c>
       <c r="O279" s="2">
@@ -17317,11 +17317,11 @@
         <v>89.190000000000055</v>
       </c>
       <c r="L280" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6239539031417215</v>
       </c>
       <c r="M280" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2236246398682946</v>
       </c>
       <c r="O280" s="2">
@@ -17375,11 +17375,11 @@
         <v>90.750000000000028</v>
       </c>
       <c r="L281" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72308091959994891</v>
       </c>
       <c r="M281" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1787245096765817</v>
       </c>
       <c r="O281" s="2">
@@ -17433,11 +17433,11 @@
         <v>92.600000000000023</v>
       </c>
       <c r="L282" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75164664858582009</v>
       </c>
       <c r="M282" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1959188944853414</v>
       </c>
       <c r="O282" s="2">
@@ -17491,11 +17491,11 @@
         <v>92.630000000000052</v>
       </c>
       <c r="L283" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76799802761341274</v>
       </c>
       <c r="M283" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1418885601577911</v>
       </c>
       <c r="O283" s="2">
@@ -17549,11 +17549,11 @@
         <v>93.510000000000048</v>
       </c>
       <c r="L284" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.812606681297245</v>
       </c>
       <c r="M284" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1400877834674465</v>
       </c>
       <c r="O284" s="2">
@@ -17607,11 +17607,11 @@
         <v>92.200000000000045</v>
       </c>
       <c r="L285" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85077145612343352</v>
       </c>
       <c r="M285" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1113789778206362</v>
       </c>
       <c r="O285" s="2">
@@ -17665,11 +17665,11 @@
         <v>91.820000000000107</v>
       </c>
       <c r="L286" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8678286129266517</v>
       </c>
       <c r="M286" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1113531832486081</v>
       </c>
       <c r="O286" s="2">
@@ -17723,11 +17723,11 @@
         <v>91.500000000000057</v>
       </c>
       <c r="L287" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87083825265643489</v>
       </c>
       <c r="M287" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0802833530106262</v>
       </c>
       <c r="O287" s="2">
@@ -17781,11 +17781,11 @@
         <v>93.87</v>
       </c>
       <c r="L288" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86894620142373691</v>
       </c>
       <c r="M288" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0954603804411247</v>
       </c>
       <c r="O288" s="2">
@@ -17839,11 +17839,11 @@
         <v>88.230000000000018</v>
       </c>
       <c r="L289" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94063654786029338</v>
       </c>
       <c r="M289" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0517344141137204</v>
       </c>
       <c r="O289" s="2">
@@ -17897,11 +17897,11 @@
         <v>72.460000000000065</v>
       </c>
       <c r="L290" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1333511134817975</v>
       </c>
       <c r="M290" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96626216828910594</v>
       </c>
       <c r="O290" s="2">
@@ -17955,11 +17955,11 @@
         <v>59.460000000000036</v>
       </c>
       <c r="L291" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1972957255015992</v>
       </c>
       <c r="M291" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86449549287583649</v>
       </c>
       <c r="O291" s="2">
@@ -18013,11 +18013,11 @@
         <v>64.75</v>
       </c>
       <c r="L292" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0300479024531866</v>
       </c>
       <c r="M292" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9399041950936281</v>
       </c>
       <c r="O292" s="2">
@@ -18071,11 +18071,11 @@
         <v>60.34</v>
       </c>
       <c r="L293" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1004420057917996</v>
       </c>
       <c r="M293" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91967687852461499</v>
       </c>
       <c r="O293" s="2">
@@ -18129,11 +18129,11 @@
         <v>53.700000000000045</v>
       </c>
       <c r="L294" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.165750458104281</v>
       </c>
       <c r="M294" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89455272363818161</v>
       </c>
       <c r="O294" s="2">
@@ -18187,11 +18187,11 @@
         <v>53.860000000000042</v>
       </c>
       <c r="L295" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0730524908057502</v>
       </c>
       <c r="M295" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90036776997659773</v>
       </c>
       <c r="O295" s="2">
@@ -18245,11 +18245,11 @@
         <v>51.949999999999989</v>
       </c>
       <c r="L296" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1060245064669842</v>
       </c>
       <c r="M296" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88410483321987832</v>
       </c>
       <c r="O296" s="2">
@@ -18303,11 +18303,11 @@
         <v>52.779999999999973</v>
       </c>
       <c r="L297" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.077306733167082</v>
       </c>
       <c r="M297" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94014962593516282</v>
       </c>
       <c r="O297" s="2">
@@ -18361,11 +18361,11 @@
         <v>52.339999999999975</v>
       </c>
       <c r="L298" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0401561628555489</v>
       </c>
       <c r="M298" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97304331660160004</v>
       </c>
       <c r="O298" s="2">
@@ -18419,11 +18419,11 @@
         <v>52.659999999999968</v>
       </c>
       <c r="L299" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0073940486925153</v>
       </c>
       <c r="M299" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94968440036068691</v>
       </c>
       <c r="O299" s="2">
@@ -18477,11 +18477,11 @@
         <v>48.779999999999916</v>
       </c>
       <c r="L300" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0877031019202366</v>
       </c>
       <c r="M300" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90066469719350162</v>
       </c>
       <c r="O300" s="2">
@@ -18535,11 +18535,11 @@
         <v>48.929999999999893</v>
       </c>
       <c r="L301" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0615470435105989</v>
       </c>
       <c r="M301" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90981777612495396</v>
       </c>
       <c r="O301" s="2">
@@ -18593,11 +18593,11 @@
         <v>49.569999999999879</v>
       </c>
       <c r="L302" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0426205099571939</v>
       </c>
       <c r="M302" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92257584217383348</v>
       </c>
       <c r="O302" s="2">
@@ -18651,11 +18651,11 @@
         <v>51.299999999999841</v>
       </c>
       <c r="L303" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0257352941176467</v>
       </c>
       <c r="M303" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99264705882352944</v>
       </c>
       <c r="O303" s="2">
@@ -18709,11 +18709,11 @@
         <v>52.089999999999861</v>
       </c>
       <c r="L304" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97096515818982787</v>
       </c>
       <c r="M304" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0430516619943941</v>
       </c>
       <c r="O304" s="2">
@@ -18767,11 +18767,11 @@
         <v>55.119999999999891</v>
       </c>
       <c r="L305" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88423934298005513</v>
       </c>
       <c r="M305" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0778255768478704</v>
       </c>
       <c r="O305" s="2">
@@ -18825,11 +18825,11 @@
         <v>51.8599999999999</v>
       </c>
       <c r="L306" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96949435854575883</v>
       </c>
       <c r="M306" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0835770998746359</v>
       </c>
       <c r="O306" s="2">
@@ -18883,11 +18883,11 @@
         <v>43.469999999999914</v>
       </c>
       <c r="L307" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0830867288868666</v>
       </c>
       <c r="M307" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98952879581152009</v>
       </c>
       <c r="O307" s="2">
@@ -18941,11 +18941,11 @@
         <v>45.009999999999906</v>
       </c>
       <c r="L308" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98327904451682924</v>
       </c>
       <c r="M308" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97741585233441985</v>
       </c>
       <c r="O308" s="2">
@@ -18999,11 +18999,11 @@
         <v>53.649999999999949</v>
       </c>
       <c r="L309" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81632227092464971</v>
       </c>
       <c r="M309" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1198079732832411</v>
       </c>
       <c r="O309" s="2">
@@ -19057,11 +19057,11 @@
         <v>57.42999999999995</v>
       </c>
       <c r="L310" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77267573696145075</v>
       </c>
       <c r="M310" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0852229780801219</v>
       </c>
       <c r="O310" s="2">
@@ -19115,11 +19115,11 @@
         <v>60.739999999999981</v>
       </c>
       <c r="L311" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79833679833679771</v>
       </c>
       <c r="M311" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0523215523215541</v>
       </c>
       <c r="O311" s="2">
@@ -19173,11 +19173,11 @@
         <v>67.919999999999959</v>
       </c>
       <c r="L312" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76590415762230701</v>
       </c>
       <c r="M312" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1340791450993499</v>
       </c>
       <c r="O312" s="2">
@@ -19231,11 +19231,11 @@
         <v>69.569999999999965</v>
       </c>
       <c r="L313" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76164519326065372</v>
       </c>
       <c r="M313" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1491575817641235</v>
       </c>
       <c r="O313" s="2">
@@ -19289,11 +19289,11 @@
         <v>79.049999999999983</v>
       </c>
       <c r="L314" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67020005971931895</v>
       </c>
       <c r="M314" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1802030456852797</v>
       </c>
       <c r="O314" s="2">
@@ -19347,11 +19347,11 @@
         <v>81.390000000000015</v>
       </c>
       <c r="L315" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73151460942158586</v>
       </c>
       <c r="M315" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.213327370304115</v>
       </c>
       <c r="O315" s="2">
@@ -19405,11 +19405,11 @@
         <v>80.410000000000053</v>
       </c>
       <c r="L316" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76271899088997852</v>
       </c>
       <c r="M316" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1269796776454104</v>
       </c>
       <c r="O316" s="2">
@@ -19463,11 +19463,11 @@
         <v>76.990000000000066</v>
       </c>
       <c r="L317" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86196871106188555</v>
       </c>
       <c r="M317" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0659005953205054</v>
       </c>
       <c r="O317" s="2">
@@ -19521,11 +19521,11 @@
         <v>84.03</v>
       </c>
       <c r="L318" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78076234331030925</v>
       </c>
       <c r="M318" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0748273215656181</v>
       </c>
       <c r="O318" s="2">
@@ -19579,11 +19579,11 @@
         <v>82.490000000000009</v>
       </c>
       <c r="L319" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86924564796905168</v>
       </c>
       <c r="M319" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0637008381689228</v>
       </c>
       <c r="O319" s="2">
@@ -19637,11 +19637,11 @@
         <v>80.210000000000036</v>
       </c>
       <c r="L320" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86887270033337416</v>
       </c>
       <c r="M320" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9903691813804173</v>
       </c>
       <c r="O320" s="2">
@@ -19695,11 +19695,11 @@
         <v>81.350000000000023</v>
       </c>
       <c r="L321" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87230327971068666</v>
       </c>
       <c r="M321" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0144656440952737</v>
       </c>
       <c r="O321" s="2">
@@ -19753,11 +19753,11 @@
         <v>72.320000000000022</v>
       </c>
       <c r="L322" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94351464435146459</v>
       </c>
       <c r="M322" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94560669456066948</v>
       </c>
       <c r="O322" s="2">
@@ -19811,11 +19811,11 @@
         <v>64.54000000000002</v>
       </c>
       <c r="L323" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1</v>
       </c>
       <c r="M323" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88471555860178208</v>
       </c>
       <c r="O323" s="2">
@@ -19869,11 +19869,11 @@
         <v>60.53</v>
       </c>
       <c r="L324" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0130909090909088</v>
       </c>
       <c r="M324" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88043636363636368</v>
       </c>
       <c r="O324" s="2">
@@ -19927,11 +19927,11 @@
         <v>54.69</v>
       </c>
       <c r="L325" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0412339172221357</v>
       </c>
       <c r="M325" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84777553867617395</v>
       </c>
       <c r="O325" s="2">
@@ -19985,11 +19985,11 @@
         <v>47.740000000000038</v>
       </c>
       <c r="L326" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0643963847643634</v>
       </c>
       <c r="M326" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7704970948999359</v>
       </c>
       <c r="O326" s="2">
@@ -20043,11 +20043,11 @@
         <v>48.490000000000009</v>
       </c>
       <c r="L327" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0035419126328218</v>
       </c>
       <c r="M327" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81784449316916874</v>
       </c>
       <c r="O327" s="2">
@@ -20101,11 +20101,11 @@
         <v>42.380000000000052</v>
       </c>
       <c r="L328" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.058607385632923</v>
       </c>
       <c r="M328" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77861473452140451</v>
       </c>
       <c r="O328" s="2">
@@ -20159,11 +20159,11 @@
         <v>39.8900000000001</v>
       </c>
       <c r="L329" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0159817351598168</v>
       </c>
       <c r="M329" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75894216133942272</v>
       </c>
       <c r="O329" s="2">
@@ -20217,11 +20217,11 @@
         <v>41.730000000000103</v>
       </c>
       <c r="L330" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94431509507178946</v>
       </c>
       <c r="M330" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80966239813737029</v>
       </c>
       <c r="O330" s="2">
@@ -20275,11 +20275,11 @@
         <v>48.580000000000098</v>
       </c>
       <c r="L331" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80649526387009518</v>
       </c>
       <c r="M331" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93910690121786256</v>
       </c>
       <c r="O331" s="2">
@@ -20333,11 +20333,11 @@
         <v>40.370000000000118</v>
       </c>
       <c r="L332" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98536483378632678</v>
       </c>
       <c r="M332" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84403094292285297</v>
       </c>
       <c r="O332" s="2">
@@ -20391,11 +20391,11 @@
         <v>37.050000000000097</v>
       </c>
       <c r="L333" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97334826427771626</v>
       </c>
       <c r="M333" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82978723404255528</v>
       </c>
       <c r="O333" s="2">
@@ -20449,11 +20449,11 @@
         <v>38.060000000000088</v>
       </c>
       <c r="L334" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92461145905822317</v>
       </c>
       <c r="M334" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88285780561354787</v>
       </c>
       <c r="O334" s="2">
@@ -20507,11 +20507,11 @@
         <v>41.070000000000107</v>
       </c>
       <c r="L335" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86581469648562392</v>
       </c>
       <c r="M335" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93724326791419577</v>
       </c>
       <c r="O335" s="2">
@@ -20565,11 +20565,11 @@
         <v>42.780000000000115</v>
       </c>
       <c r="L336" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87086397058823606</v>
       </c>
       <c r="M336" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98299632352941291</v>
       </c>
       <c r="O336" s="2">
@@ -20623,11 +20623,11 @@
         <v>46.300000000000125</v>
       </c>
       <c r="L337" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81518300948938172</v>
       </c>
       <c r="M337" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0460912788070502</v>
       </c>
       <c r="O337" s="2">
@@ -20681,11 +20681,11 @@
         <v>47.010000000000161</v>
       </c>
       <c r="L338" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84477228992944309</v>
       </c>
       <c r="M338" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0051314945477885</v>
       </c>
       <c r="O338" s="2">
@@ -20739,11 +20739,11 @@
         <v>47.130000000000166</v>
       </c>
       <c r="L339" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91694278771813731</v>
       </c>
       <c r="M339" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0410868124585833</v>
       </c>
       <c r="O339" s="2">
@@ -20797,11 +20797,11 @@
         <v>48.930000000000177</v>
       </c>
       <c r="L340" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87475538160469846</v>
       </c>
       <c r="M340" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0639269406392704</v>
       </c>
       <c r="O340" s="2">
@@ -20855,11 +20855,11 @@
         <v>45.700000000000216</v>
       </c>
       <c r="L341" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96800000000000086</v>
       </c>
       <c r="M341" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98810810810811034</v>
       </c>
       <c r="O341" s="2">
@@ -20913,11 +20913,11 @@
         <v>41.920000000000186</v>
       </c>
       <c r="L342" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0632246773135003</v>
       </c>
       <c r="M342" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91708597681032933</v>
       </c>
       <c r="O342" s="2">
@@ -20971,11 +20971,11 @@
         <v>39.120000000000118</v>
       </c>
       <c r="L343" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.099374720857528</v>
       </c>
       <c r="M343" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87360428762840869</v>
       </c>
       <c r="O343" s="2">
@@ -21029,11 +21029,11 @@
         <v>33.490000000000094</v>
       </c>
       <c r="L344" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2289789789789809</v>
       </c>
       <c r="M344" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83808808808809143</v>
       </c>
       <c r="O344" s="2">
@@ -21087,11 +21087,11 @@
         <v>30.520000000000067</v>
       </c>
       <c r="L345" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1873896595208089</v>
       </c>
       <c r="M345" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76973518284993914</v>
       </c>
       <c r="O345" s="2">
@@ -21145,11 +21145,11 @@
         <v>30.850000000000023</v>
       </c>
       <c r="L346" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1530720338983058</v>
       </c>
       <c r="M346" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81700211864406858</v>
       </c>
       <c r="O346" s="2">
@@ -21203,11 +21203,11 @@
         <v>30.730000000000018</v>
       </c>
       <c r="L347" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1218100499868455</v>
       </c>
       <c r="M347" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80847145488029537</v>
       </c>
       <c r="O347" s="2">
@@ -21261,11 +21261,11 @@
         <v>30.149999999999977</v>
       </c>
       <c r="L348" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1527700055959722</v>
       </c>
       <c r="M348" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84359261331841129</v>
       </c>
       <c r="O348" s="2">
@@ -21319,11 +21319,11 @@
         <v>25.22999999999999</v>
       </c>
       <c r="L349" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2284665348771537</v>
       </c>
       <c r="M349" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71251059022874985</v>
       </c>
       <c r="O349" s="2">
@@ -21377,11 +21377,11 @@
         <v>24.639999999999986</v>
       </c>
       <c r="L350" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.241239501882422</v>
       </c>
       <c r="M350" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71358239212279306</v>
       </c>
       <c r="O350" s="2">
@@ -21435,11 +21435,11 @@
         <v>21.38999999999993</v>
       </c>
       <c r="L351" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3273172223921712</v>
       </c>
       <c r="M351" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65432854083817638</v>
       </c>
       <c r="O351" s="2">
@@ -21493,11 +21493,11 @@
         <v>21.779999999999973</v>
       </c>
       <c r="L352" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2805247225025238</v>
       </c>
       <c r="M352" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73259334006054633</v>
       </c>
       <c r="O352" s="2">
@@ -21551,11 +21551,11 @@
         <v>22.709999999999923</v>
       </c>
       <c r="L353" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1515151515151532</v>
       </c>
       <c r="M353" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78202479338842956</v>
       </c>
       <c r="O353" s="2">
@@ -21609,11 +21609,11 @@
         <v>24.869999999999891</v>
       </c>
       <c r="L354" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0471456061577944</v>
       </c>
       <c r="M354" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79762668377164769</v>
       </c>
       <c r="O354" s="2">
@@ -21667,11 +21667,11 @@
         <v>25.369999999999891</v>
       </c>
       <c r="L355" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0303499535459884</v>
       </c>
       <c r="M355" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78569216475688952</v>
       </c>
       <c r="O355" s="2">
@@ -21725,11 +21725,11 @@
         <v>27.779999999999859</v>
       </c>
       <c r="L356" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94869373622914355</v>
       </c>
       <c r="M356" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87440982058545402</v>
       </c>
       <c r="O356" s="2">
@@ -21783,11 +21783,11 @@
         <v>27.13999999999993</v>
       </c>
       <c r="L357" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93124246079613726</v>
       </c>
       <c r="M357" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81845597104945589</v>
       </c>
       <c r="O357" s="2">
@@ -21841,11 +21841,11 @@
         <v>26.67999999999995</v>
       </c>
       <c r="L358" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94520133212231128</v>
       </c>
       <c r="M358" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8077505298213723</v>
       </c>
       <c r="O358" s="2">
@@ -21899,11 +21899,11 @@
         <v>23.730000000000018</v>
       </c>
       <c r="L359" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0079440737210024</v>
       </c>
       <c r="M359" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75405147759771207</v>
       </c>
       <c r="O359" s="2">
@@ -21957,11 +21957,11 @@
         <v>23.670000000000073</v>
       </c>
       <c r="L360" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0027932960893846</v>
       </c>
       <c r="M360" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73463687150838153</v>
       </c>
       <c r="O360" s="2">
@@ -22015,11 +22015,11 @@
         <v>23.240000000000066</v>
       </c>
       <c r="L361" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0399251403618226</v>
       </c>
       <c r="M361" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72489082969432517</v>
       </c>
       <c r="O361" s="2">
@@ -22073,11 +22073,11 @@
         <v>22.570000000000107</v>
       </c>
       <c r="L362" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0550430504305031</v>
       </c>
       <c r="M362" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69403444034440587</v>
       </c>
       <c r="O362" s="2">
@@ -22131,11 +22131,11 @@
         <v>21.970000000000084</v>
       </c>
       <c r="L363" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0922532947605272</v>
       </c>
       <c r="M363" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.70620379299260927</v>
       </c>
       <c r="O363" s="2">
@@ -22189,11 +22189,11 @@
         <v>21.440000000000055</v>
       </c>
       <c r="L364" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0624380574826555</v>
       </c>
       <c r="M364" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.70829203832177168</v>
       </c>
       <c r="O364" s="2">
@@ -22247,11 +22247,11 @@
         <v>19.760000000000105</v>
       </c>
       <c r="L365" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0923233006425417</v>
       </c>
       <c r="M365" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6682448427460288</v>
       </c>
       <c r="O365" s="2">
@@ -22305,11 +22305,11 @@
         <v>18.61000000000007</v>
       </c>
       <c r="L366" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1157374735356396</v>
       </c>
       <c r="M366" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65666901905434194</v>
       </c>
       <c r="O366" s="2">
@@ -22363,11 +22363,11 @@
         <v>19.680000000000121</v>
       </c>
       <c r="L367" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0369863013698624</v>
       </c>
       <c r="M367" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67397260273972914</v>
       </c>
       <c r="O367" s="2">
@@ -22421,11 +22421,11 @@
         <v>17.230000000000132</v>
       </c>
       <c r="L368" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1529368304396002</v>
       </c>
       <c r="M368" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63649796823051719</v>
       </c>
       <c r="O368" s="2">
@@ -22479,11 +22479,11 @@
         <v>19.580000000000098</v>
       </c>
       <c r="L369" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.028779739063699</v>
       </c>
       <c r="M369" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75134305448964134</v>
       </c>
       <c r="O369" s="2">
@@ -22537,11 +22537,11 @@
         <v>16.970000000000084</v>
       </c>
       <c r="L370" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1177884615384639</v>
       </c>
       <c r="M370" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.67988782051282448</v>
       </c>
       <c r="O370" s="2">
@@ -22595,11 +22595,11 @@
         <v>19.770000000000039</v>
       </c>
       <c r="L371" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0172910662824215</v>
       </c>
       <c r="M371" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81391519143680613</v>
       </c>
       <c r="O371" s="2">
@@ -22653,11 +22653,11 @@
         <v>20.920000000000016</v>
       </c>
       <c r="L372" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98928276999175635</v>
       </c>
       <c r="M372" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86232481450948162</v>
       </c>
       <c r="O372" s="2">
@@ -22711,11 +22711,11 @@
         <v>26.449999999999989</v>
       </c>
       <c r="L373" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83052039381153331</v>
       </c>
       <c r="M373" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93002812939521773</v>
       </c>
       <c r="O373" s="2">
@@ -22769,11 +22769,11 @@
         <v>28.779999999999973</v>
       </c>
       <c r="L374" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85400934915498017</v>
       </c>
       <c r="M374" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0348795397339077</v>
       </c>
       <c r="O374" s="2">
@@ -22827,11 +22827,11 @@
         <v>30.920000000000016</v>
       </c>
       <c r="L375" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77599212856674238</v>
       </c>
       <c r="M375" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0141029845851082</v>
       </c>
       <c r="O375" s="2">
@@ -22885,11 +22885,11 @@
         <v>34.579999999999984</v>
       </c>
       <c r="L376" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75692499221911158</v>
       </c>
       <c r="M376" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0762527233115464</v>
       </c>
       <c r="O376" s="2">
@@ -22943,11 +22943,11 @@
         <v>35.109999999999957</v>
       </c>
       <c r="L377" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79358479358479406</v>
       </c>
       <c r="M377" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.042768042768041</v>
       </c>
       <c r="O377" s="2">
@@ -23001,11 +23001,11 @@
         <v>38.25</v>
       </c>
       <c r="L378" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75396825396825395</v>
       </c>
       <c r="M378" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0841836734693868</v>
       </c>
       <c r="O378" s="2">
@@ -23059,11 +23059,11 @@
         <v>38.339999999999975</v>
       </c>
       <c r="L379" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80188157166574514</v>
       </c>
       <c r="M379" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0608743774211398</v>
       </c>
       <c r="O379" s="2">
@@ -23117,11 +23117,11 @@
         <v>38.92999999999995</v>
       </c>
       <c r="L380" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81347708894878679</v>
       </c>
       <c r="M380" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0493261455525587</v>
       </c>
       <c r="O380" s="2">
@@ -23175,11 +23175,11 @@
         <v>36.729999999999961</v>
       </c>
       <c r="L381" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90036803364879026</v>
       </c>
       <c r="M381" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96556256572029286</v>
       </c>
       <c r="O381" s="2">
@@ -23233,11 +23233,11 @@
         <v>34.88999999999993</v>
       </c>
       <c r="L382" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99036458333333321</v>
       </c>
       <c r="M382" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90859374999999731</v>
       </c>
       <c r="O382" s="2">
@@ -23291,11 +23291,11 @@
         <v>31.92999999999995</v>
       </c>
       <c r="L383" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0864805692391906</v>
       </c>
       <c r="M383" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87383689107826856</v>
       </c>
       <c r="O383" s="2">
@@ -23349,11 +23349,11 @@
         <v>34.199999999999989</v>
       </c>
       <c r="L384" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97292275019909791</v>
       </c>
       <c r="M384" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90788425803026074</v>
       </c>
       <c r="O384" s="2">
@@ -23407,11 +23407,11 @@
         <v>31.680000000000007</v>
       </c>
       <c r="L385" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0308462958080693</v>
       </c>
       <c r="M385" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83522277880305706</v>
       </c>
       <c r="O385" s="2">
@@ -23465,11 +23465,11 @@
         <v>30.980000000000018</v>
       </c>
       <c r="L386" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0438130642591632</v>
       </c>
       <c r="M386" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82262347318109397</v>
       </c>
       <c r="O386" s="2">
@@ -23523,11 +23523,11 @@
         <v>25.54000000000002</v>
       </c>
       <c r="L387" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1947463768115956</v>
       </c>
       <c r="M387" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77113526570048363</v>
       </c>
       <c r="O387" s="2">
@@ -23581,11 +23581,11 @@
         <v>24.139999999999986</v>
       </c>
       <c r="L388" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1301005322294528</v>
       </c>
       <c r="M388" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71377882909520962</v>
       </c>
       <c r="O388" s="2">
@@ -23639,11 +23639,11 @@
         <v>21.680000000000007</v>
       </c>
       <c r="L389" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2490118577075118</v>
       </c>
       <c r="M389" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71409749670619227</v>
       </c>
       <c r="O389" s="2">
@@ -23697,11 +23697,11 @@
         <v>18.130000000000052</v>
       </c>
       <c r="L390" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2553931802366045</v>
       </c>
       <c r="M390" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.63082811412665307</v>
       </c>
       <c r="O390" s="2">
@@ -23755,11 +23755,11 @@
         <v>18.750000000000057</v>
       </c>
       <c r="L391" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1865975564605726</v>
       </c>
       <c r="M391" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69418733802295529</v>
       </c>
       <c r="O391" s="2">
@@ -23813,11 +23813,11 @@
         <v>15.840000000000032</v>
       </c>
       <c r="L392" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2525370804059361</v>
       </c>
       <c r="M392" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61826697892271776</v>
       </c>
       <c r="O392" s="2">
@@ -23871,11 +23871,11 @@
         <v>14.460000000000036</v>
       </c>
       <c r="L393" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2523584905660405</v>
       </c>
       <c r="M393" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.5683962264150958</v>
       </c>
       <c r="O393" s="2">
@@ -23929,11 +23929,11 @@
         <v>13.750000000000057</v>
       </c>
       <c r="L394" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2512390392680168</v>
       </c>
       <c r="M394" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.52420892108273154</v>
       </c>
       <c r="O394" s="2">
@@ -23987,11 +23987,11 @@
         <v>14.54000000000002</v>
       </c>
       <c r="L395" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2750206782464915</v>
       </c>
       <c r="M395" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6013234077750228</v>
       </c>
       <c r="O395" s="2">
@@ -24045,11 +24045,11 @@
         <v>17.520000000000039</v>
       </c>
       <c r="L396" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.055489021956092</v>
       </c>
       <c r="M396" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69940119760479325</v>
       </c>
       <c r="O396" s="2">
@@ -24103,11 +24103,11 @@
         <v>21.730000000000018</v>
       </c>
       <c r="L397" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96340068623713815</v>
       </c>
       <c r="M397" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82844071673656305</v>
       </c>
       <c r="O397" s="2">
@@ -24161,11 +24161,11 @@
         <v>20.580000000000041</v>
       </c>
       <c r="L398" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0725028924026268</v>
       </c>
       <c r="M398" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79367527959892326</v>
       </c>
       <c r="O398" s="2">
@@ -24219,11 +24219,11 @@
         <v>21.980000000000018</v>
       </c>
       <c r="L399" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0516357903035127</v>
       </c>
       <c r="M399" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86637761135199309</v>
       </c>
       <c r="O399" s="2">
@@ -24277,11 +24277,11 @@
         <v>24.120000000000061</v>
       </c>
       <c r="L400" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97560975609756251</v>
       </c>
       <c r="M400" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87804878048780621</v>
       </c>
       <c r="O400" s="2">
@@ -24335,11 +24335,11 @@
         <v>23.310000000000059</v>
       </c>
       <c r="L401" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.080517613227898</v>
       </c>
       <c r="M401" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83788641265277009</v>
       </c>
       <c r="O401" s="2">
@@ -24393,11 +24393,11 @@
         <v>22.400000000000091</v>
       </c>
       <c r="L402" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1289609432571872</v>
       </c>
       <c r="M402" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82535003684598751</v>
       </c>
       <c r="O402" s="2">
@@ -24451,11 +24451,11 @@
         <v>21.82000000000005</v>
       </c>
       <c r="L403" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.120525931336747</v>
       </c>
       <c r="M403" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79693206720234111</v>
       </c>
       <c r="O403" s="2">
@@ -24509,11 +24509,11 @@
         <v>21.190000000000055</v>
       </c>
       <c r="L404" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1456854688083713</v>
       </c>
       <c r="M404" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79155771385880147</v>
       </c>
       <c r="O404" s="2">
@@ -24567,11 +24567,11 @@
         <v>20.950000000000045</v>
       </c>
       <c r="L405" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1430700447093927</v>
       </c>
       <c r="M405" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78055141579732146</v>
       </c>
       <c r="O405" s="2">
@@ -24625,11 +24625,11 @@
         <v>23.080000000000041</v>
       </c>
       <c r="L406" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0870337477797551</v>
       </c>
       <c r="M406" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81989342806394694</v>
       </c>
       <c r="O406" s="2">
@@ -24683,11 +24683,11 @@
         <v>25.11000000000007</v>
       </c>
       <c r="L407" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0276890308839222</v>
       </c>
       <c r="M407" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89137380191693671</v>
       </c>
       <c r="O407" s="2">
@@ -24741,11 +24741,11 @@
         <v>25.490000000000066</v>
       </c>
       <c r="L408" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0172984909827048</v>
       </c>
       <c r="M408" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93816709606183868</v>
       </c>
       <c r="O408" s="2">
@@ -24799,11 +24799,11 @@
         <v>28.130000000000052</v>
       </c>
       <c r="L409" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83696746058369786</v>
       </c>
       <c r="M409" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94364307279436777</v>
       </c>
       <c r="O409" s="2">
@@ -24857,11 +24857,11 @@
         <v>25.300000000000068</v>
       </c>
       <c r="L410" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97773279352227016</v>
       </c>
       <c r="M410" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85357624831309475</v>
       </c>
       <c r="O410" s="2">
@@ -24915,11 +24915,11 @@
         <v>22.60000000000008</v>
       </c>
       <c r="L411" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0115215181294488</v>
       </c>
       <c r="M411" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76584208742799487</v>
       </c>
       <c r="O411" s="2">
@@ -24973,11 +24973,11 @@
         <v>21.810000000000059</v>
       </c>
       <c r="L412" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0500352360817484</v>
       </c>
       <c r="M412" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.76849894291755128</v>
       </c>
       <c r="O412" s="2">
@@ -25031,11 +25031,11 @@
         <v>20.230000000000075</v>
       </c>
       <c r="L413" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0802711380663577</v>
       </c>
       <c r="M413" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72172672136996563</v>
       </c>
       <c r="O413" s="2">
@@ -25089,11 +25089,11 @@
         <v>19.020000000000039</v>
       </c>
       <c r="L414" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1187620889748573</v>
       </c>
       <c r="M414" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.73578336557060364</v>
       </c>
       <c r="O414" s="2">
@@ -25147,11 +25147,11 @@
         <v>20.07000000000005</v>
       </c>
       <c r="L415" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99385324625432314</v>
       </c>
       <c r="M415" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77103342297349653</v>
       </c>
       <c r="O415" s="2">
@@ -25205,11 +25205,11 @@
         <v>20.170000000000016</v>
       </c>
       <c r="L416" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97473200612557542</v>
       </c>
       <c r="M416" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77220520673813386</v>
       </c>
       <c r="O416" s="2">
@@ -25263,11 +25263,11 @@
         <v>20.909999999999968</v>
       </c>
       <c r="L417" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96458871265215651</v>
       </c>
       <c r="M417" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77130210254518639</v>
       </c>
       <c r="O417" s="2">
@@ -25321,11 +25321,11 @@
         <v>20.3599999999999</v>
       </c>
       <c r="L418" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0011045655375563</v>
       </c>
       <c r="M418" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74963181148748037</v>
       </c>
       <c r="O418" s="2">
@@ -25379,11 +25379,11 @@
         <v>19.909999999999911</v>
       </c>
       <c r="L419" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0189760114572135</v>
       </c>
       <c r="M419" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71285356247762077</v>
       </c>
       <c r="O419" s="2">
@@ -25437,11 +25437,11 @@
         <v>18.449999999999932</v>
       </c>
       <c r="L420" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0727205610926531</v>
       </c>
       <c r="M420" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68106312292358617</v>
       </c>
       <c r="O420" s="2">
@@ -25495,11 +25495,11 @@
         <v>18.239999999999895</v>
       </c>
       <c r="L421" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0841904761904755</v>
       </c>
       <c r="M421" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69485714285713884</v>
       </c>
       <c r="O421" s="2">
@@ -25553,11 +25553,11 @@
         <v>18.67999999999995</v>
       </c>
       <c r="L422" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.046862896979083</v>
       </c>
       <c r="M422" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.72347017815646453</v>
       </c>
       <c r="O422" s="2">
@@ -25611,11 +25611,11 @@
         <v>17.049999999999955</v>
       </c>
       <c r="L423" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1596009975062307</v>
       </c>
       <c r="M423" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.70864505403158407</v>
       </c>
       <c r="O423" s="2">
@@ -25669,11 +25669,11 @@
         <v>18.819999999999936</v>
       </c>
       <c r="L424" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0604890604890564</v>
       </c>
       <c r="M424" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80737880737880263</v>
       </c>
       <c r="O424" s="2">
@@ -25727,11 +25727,11 @@
         <v>19.88999999999993</v>
       </c>
       <c r="L425" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0484638684552119</v>
       </c>
       <c r="M425" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86066637819125347</v>
       </c>
       <c r="O425" s="2">
@@ -25785,11 +25785,11 @@
         <v>20.209999999999923</v>
       </c>
       <c r="L426" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0139652983495548</v>
       </c>
       <c r="M426" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85526872619550898</v>
       </c>
       <c r="O426" s="2">
@@ -25843,11 +25843,11 @@
         <v>21.959999999999923</v>
       </c>
       <c r="L427" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95395273023634686</v>
       </c>
       <c r="M427" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89486552567236566</v>
       </c>
       <c r="O427" s="2">
@@ -25901,11 +25901,11 @@
         <v>21.569999999999936</v>
       </c>
       <c r="L428" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0084269662921317</v>
       </c>
       <c r="M428" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8655698234349869</v>
       </c>
       <c r="O428" s="2">
@@ -25959,11 +25959,11 @@
         <v>20.459999999999923</v>
       </c>
       <c r="L429" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0485973923350413</v>
       </c>
       <c r="M429" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80837613591465152</v>
       </c>
       <c r="O429" s="2">
@@ -26017,11 +26017,11 @@
         <v>20.92999999999995</v>
       </c>
       <c r="L430" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0355987055016156</v>
       </c>
       <c r="M430" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84668284789643522</v>
       </c>
       <c r="O430" s="2">
@@ -26075,11 +26075,11 @@
         <v>22.129999999999995</v>
       </c>
       <c r="L431" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95123966942148519</v>
       </c>
       <c r="M431" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91446280991735129</v>
       </c>
       <c r="O431" s="2">
@@ -26133,11 +26133,11 @@
         <v>22.910000000000025</v>
       </c>
       <c r="L432" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93777077589601854</v>
       </c>
       <c r="M432" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90232374950767558</v>
       </c>
       <c r="O432" s="2">
@@ -26191,11 +26191,11 @@
         <v>23.130000000000052</v>
       </c>
       <c r="L433" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96644844517184758</v>
       </c>
       <c r="M433" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9463993453355134</v>
       </c>
       <c r="O433" s="2">
@@ -26249,11 +26249,11 @@
         <v>21.53000000000003</v>
       </c>
       <c r="L434" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99762658227847867</v>
       </c>
       <c r="M434" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85166139240506156</v>
       </c>
       <c r="O434" s="2">
@@ -26307,11 +26307,11 @@
         <v>20.310000000000002</v>
       </c>
       <c r="L435" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0837966640190608</v>
       </c>
       <c r="M435" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80659253375694806</v>
       </c>
       <c r="O435" s="2">
@@ -26365,11 +26365,11 @@
         <v>21.019999999999982</v>
       </c>
       <c r="L436" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0599682287529804</v>
       </c>
       <c r="M436" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83478951548848201</v>
       </c>
       <c r="O436" s="2">
@@ -26423,11 +26423,11 @@
         <v>19.75</v>
       </c>
       <c r="L437" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.10470347648262</v>
       </c>
       <c r="M437" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80777096114519464</v>
       </c>
       <c r="O437" s="2">
@@ -26481,11 +26481,11 @@
         <v>19.379999999999995</v>
       </c>
       <c r="L438" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0956030657523221</v>
       </c>
       <c r="M438" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78176684146833497</v>
       </c>
       <c r="O438" s="2">
@@ -26539,11 +26539,11 @@
         <v>18.759999999999991</v>
       </c>
       <c r="L439" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1252012882447673</v>
       </c>
       <c r="M439" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.7552334943639295</v>
       </c>
       <c r="O439" s="2">
@@ -26597,11 +26597,11 @@
         <v>19.869999999999948</v>
       </c>
       <c r="L440" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0848827809215855</v>
       </c>
       <c r="M440" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80315278900565834</v>
       </c>
       <c r="O440" s="2">
@@ -26655,11 +26655,11 @@
         <v>18.169999999999902</v>
       </c>
       <c r="L441" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1524590163934443</v>
       </c>
       <c r="M441" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74467213114753938</v>
       </c>
       <c r="O441" s="2">
@@ -26713,11 +26713,11 @@
         <v>18.629999999999882</v>
       </c>
       <c r="L442" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1109725685785548</v>
       </c>
       <c r="M442" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77431421446383908</v>
       </c>
       <c r="O442" s="2">
@@ -26771,11 +26771,11 @@
         <v>19.449999999999875</v>
       </c>
       <c r="L443" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.082362728785359</v>
       </c>
       <c r="M443" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.80906821963394326</v>
       </c>
       <c r="O443" s="2">
@@ -26829,11 +26829,11 @@
         <v>23.849999999999852</v>
       </c>
       <c r="L444" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92899850523168948</v>
       </c>
       <c r="M444" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89125560538116633</v>
       </c>
       <c r="O444" s="2">
@@ -26887,11 +26887,11 @@
         <v>26.569999999999879</v>
       </c>
       <c r="L445" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91871324801106957</v>
       </c>
       <c r="M445" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.91905914908336261</v>
       </c>
       <c r="O445" s="2">
@@ -26945,11 +26945,11 @@
         <v>29.949999999999932</v>
       </c>
       <c r="L446" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8859768550034044</v>
       </c>
       <c r="M446" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0194009530292734</v>
       </c>
       <c r="O446" s="2">
@@ -27003,11 +27003,11 @@
         <v>30.619999999999948</v>
       </c>
       <c r="L447" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89074255806346148</v>
       </c>
       <c r="M447" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0016355904481522</v>
       </c>
       <c r="O447" s="2">
@@ -27061,11 +27061,11 @@
         <v>40.889999999999986</v>
       </c>
       <c r="L448" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65368081676518008</v>
       </c>
       <c r="M448" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0986029016657717</v>
       </c>
       <c r="O448" s="2">
@@ -27119,11 +27119,11 @@
         <v>56.240000000000009</v>
       </c>
       <c r="L449" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.50056599501924337</v>
       </c>
       <c r="M449" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2732623952909228</v>
       </c>
       <c r="O449" s="2">
@@ -27177,11 +27177,11 @@
         <v>59.829999999999984</v>
       </c>
       <c r="L450" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.59864950411479123</v>
       </c>
       <c r="M450" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2625026376872759</v>
       </c>
       <c r="O450" s="2">
@@ -27235,11 +27235,11 @@
         <v>61.56</v>
       </c>
       <c r="L451" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64738348323793848</v>
       </c>
       <c r="M451" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2583810302534748</v>
       </c>
       <c r="O451" s="2">
@@ -27293,11 +27293,11 @@
         <v>60.31</v>
       </c>
       <c r="L452" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.692865318580694</v>
       </c>
       <c r="M452" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1505150705837464</v>
       </c>
       <c r="O452" s="2">
@@ -27351,11 +27351,11 @@
         <v>61.410000000000025</v>
       </c>
       <c r="L453" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71987393400074129</v>
       </c>
       <c r="M453" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1384872080088992</v>
       </c>
       <c r="O453" s="2">
@@ -27409,11 +27409,11 @@
         <v>65.53000000000003</v>
       </c>
       <c r="L454" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69201586480427646</v>
       </c>
       <c r="M454" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1300224176582172</v>
       </c>
       <c r="O454" s="2">
@@ -27467,11 +27467,11 @@
         <v>69.720000000000084</v>
       </c>
       <c r="L455" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.69582004364612982</v>
       </c>
       <c r="M455" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1703877790834316</v>
       </c>
       <c r="O455" s="2">
@@ -27525,11 +27525,11 @@
         <v>72.740000000000066</v>
       </c>
       <c r="L456" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.6847861573620635</v>
       </c>
       <c r="M456" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1873979758406792</v>
       </c>
       <c r="O456" s="2">
@@ -27583,11 +27583,11 @@
         <v>80.270000000000095</v>
       </c>
       <c r="L457" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.61498629302467256</v>
       </c>
       <c r="M457" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2225098994821808</v>
       </c>
       <c r="O457" s="2">
@@ -27641,11 +27641,11 @@
         <v>84.790000000000134</v>
       </c>
       <c r="L458" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.64247235611000875</v>
       </c>
       <c r="M458" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.202013042245534</v>
       </c>
       <c r="O458" s="2">
@@ -27699,11 +27699,11 @@
         <v>87.230000000000132</v>
       </c>
       <c r="L459" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.68184311574328083</v>
       </c>
       <c r="M459" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1962424574876582</v>
       </c>
       <c r="O459" s="2">
@@ -27757,11 +27757,11 @@
         <v>91.87000000000009</v>
       </c>
       <c r="L460" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.66548178240446909</v>
       </c>
       <c r="M460" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1663069696584996</v>
       </c>
       <c r="O460" s="2">
@@ -27815,11 +27815,11 @@
         <v>101.34000000000009</v>
       </c>
       <c r="L461" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.65504143646408863</v>
       </c>
       <c r="M461" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1664364640883982</v>
       </c>
       <c r="O461" s="2">
@@ -27873,11 +27873,11 @@
         <v>97.580000000000041</v>
       </c>
       <c r="L462" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78634655026070155</v>
       </c>
       <c r="M462" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1832181399296715</v>
       </c>
       <c r="O462" s="2">
@@ -27931,11 +27931,11 @@
         <v>83.390000000000043</v>
       </c>
       <c r="L463" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92764565244746455</v>
       </c>
       <c r="M463" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0493267899836412</v>
       </c>
       <c r="O463" s="2">
@@ -27989,11 +27989,11 @@
         <v>79.810000000000059</v>
       </c>
       <c r="L464" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90685142417244047</v>
       </c>
       <c r="M464" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0239928149858866</v>
       </c>
       <c r="O464" s="2">
@@ -28047,11 +28047,11 @@
         <v>81.13</v>
       </c>
       <c r="L465" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.87732111908888377</v>
       </c>
       <c r="M465" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0043327556325818</v>
       </c>
       <c r="O465" s="2">
@@ -28105,11 +28105,11 @@
         <v>83.980000000000018</v>
       </c>
       <c r="L466" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89250518672199153</v>
       </c>
       <c r="M466" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0889522821576758</v>
       </c>
       <c r="O466" s="2">
@@ -28163,11 +28163,11 @@
         <v>81.54000000000002</v>
       </c>
       <c r="L467" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.89579476329013508</v>
       </c>
       <c r="M467" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0782861676805071</v>
       </c>
       <c r="O467" s="2">
@@ -28221,11 +28221,11 @@
         <v>77.240000000000066</v>
       </c>
       <c r="L468" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95847568988173426</v>
       </c>
       <c r="M468" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0149802890932982</v>
       </c>
       <c r="O468" s="2">
@@ -28279,11 +28279,11 @@
         <v>74.580000000000041</v>
       </c>
       <c r="L469" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97900686314089624</v>
       </c>
       <c r="M469" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0036334275333061</v>
       </c>
       <c r="O469" s="2">
@@ -28337,11 +28337,11 @@
         <v>74.730000000000018</v>
       </c>
       <c r="L470" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93747521480502294</v>
       </c>
       <c r="M470" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.987838730998017</v>
       </c>
       <c r="O470" s="2">
@@ -28395,11 +28395,11 @@
         <v>73.259999999999991</v>
       </c>
       <c r="L471" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95575692963752679</v>
       </c>
       <c r="M471" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97627931769722776</v>
       </c>
       <c r="O471" s="2">
@@ -28453,11 +28453,11 @@
         <v>69.389999999999986</v>
       </c>
       <c r="L472" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99672271302365401</v>
       </c>
       <c r="M472" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98874323168994072</v>
       </c>
       <c r="O472" s="2">
@@ -28511,11 +28511,11 @@
         <v>68.759999999999934</v>
       </c>
       <c r="L473" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.94889779559118248</v>
       </c>
       <c r="M473" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98425422273117635</v>
       </c>
       <c r="O473" s="2">
@@ -28569,11 +28569,11 @@
         <v>66.879999999999967</v>
       </c>
       <c r="L474" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98346375313745704</v>
       </c>
       <c r="M474" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.98745016979182099</v>
       </c>
       <c r="O474" s="2">
@@ -28627,11 +28627,11 @@
         <v>58.279999999999916</v>
       </c>
       <c r="L475" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0876474442988204</v>
       </c>
       <c r="M475" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95478374836173008</v>
       </c>
       <c r="O475" s="2">
@@ -28685,11 +28685,11 @@
         <v>57.839999999999918</v>
       </c>
       <c r="L476" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.97989623865110231</v>
       </c>
       <c r="M476" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93774319066147893</v>
       </c>
       <c r="O476" s="2">
@@ -28743,11 +28743,11 @@
         <v>65.869999999999948</v>
       </c>
       <c r="L477" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.83027670527670561</v>
       </c>
       <c r="M477" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0596846846846864</v>
       </c>
       <c r="O477" s="2">
@@ -28801,11 +28801,11 @@
         <v>65.019999999999925</v>
       </c>
       <c r="L478" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84071798188874547</v>
       </c>
       <c r="M478" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0514230271668825</v>
       </c>
       <c r="O478" s="2">
@@ -28859,11 +28859,11 @@
         <v>64.95999999999998</v>
       </c>
       <c r="L479" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8147003262922895</v>
       </c>
       <c r="M479" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1155761634896117</v>
       </c>
       <c r="O479" s="2">
@@ -28917,11 +28917,11 @@
         <v>61.67999999999995</v>
       </c>
       <c r="L480" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.79456847717427603</v>
       </c>
       <c r="M480" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0276574475174955</v>
       </c>
       <c r="O480" s="2">
@@ -28975,11 +28975,11 @@
         <v>62.979999999999961</v>
       </c>
       <c r="L481" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.77129675399571651</v>
       </c>
       <c r="M481" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0377327401548868</v>
       </c>
       <c r="O481" s="2">
@@ -29033,11 +29033,11 @@
         <v>61.319999999999936</v>
       </c>
       <c r="L482" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78510498687664165</v>
       </c>
       <c r="M482" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0059055118110238</v>
       </c>
       <c r="O482" s="2">
@@ -29091,11 +29091,11 @@
         <v>61.579999999999984</v>
       </c>
       <c r="L483" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.81982272360999353</v>
       </c>
       <c r="M483" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.99242546333601978</v>
       </c>
       <c r="O483" s="2">
@@ -29149,11 +29149,11 @@
         <v>58.710000000000036</v>
       </c>
       <c r="L484" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90113880178247407</v>
       </c>
       <c r="M484" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96897177752104413</v>
       </c>
       <c r="O484" s="2">
@@ -29207,11 +29207,11 @@
         <v>52.840000000000032</v>
       </c>
       <c r="L485" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0090619231414679</v>
       </c>
       <c r="M485" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88672596073166732</v>
       </c>
       <c r="O485" s="2">
@@ -29265,11 +29265,11 @@
         <v>57.019999999999982</v>
       </c>
       <c r="L486" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8982710713183093</v>
       </c>
       <c r="M486" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.88020994133991981</v>
       </c>
       <c r="O486" s="2">
@@ -29323,11 +29323,11 @@
         <v>66.319999999999993</v>
       </c>
       <c r="L487" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8279861424913405</v>
       </c>
       <c r="M487" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.9989456243410153</v>
       </c>
       <c r="O487" s="2">
@@ -29381,11 +29381,11 @@
         <v>66.069999999999993</v>
       </c>
       <c r="L488" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.85614035087719498</v>
       </c>
       <c r="M488" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96593567251462009</v>
       </c>
       <c r="O488" s="2">
@@ -29439,11 +29439,11 @@
         <v>76.080000000000013</v>
       </c>
       <c r="L489" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.74985978687605326</v>
       </c>
       <c r="M489" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.066741446999439</v>
       </c>
       <c r="O489" s="2">
@@ -29497,11 +29497,11 @@
         <v>72.170000000000044</v>
       </c>
       <c r="L490" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.84984520123839158</v>
       </c>
       <c r="M490" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0156206023079091</v>
       </c>
       <c r="O490" s="2">
@@ -29555,11 +29555,11 @@
         <v>64.630000000000024</v>
       </c>
       <c r="L491" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.93871428571428706</v>
       </c>
       <c r="M491" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.92328571428571427</v>
       </c>
       <c r="O491" s="2">
@@ -29613,11 +29613,11 @@
         <v>67.450000000000074</v>
       </c>
       <c r="L492" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.90814730555950629</v>
       </c>
       <c r="M492" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.95905019195222607</v>
       </c>
       <c r="O492" s="2">
@@ -29671,11 +29671,11 @@
         <v>70.920000000000073</v>
       </c>
       <c r="L493" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.86385803305337339</v>
       </c>
       <c r="M493" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>0.96071525331888408</v>
       </c>
       <c r="O493" s="2">
@@ -29729,11 +29729,11 @@
         <v>80.660000000000082</v>
       </c>
       <c r="L494" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78528410578685559</v>
       </c>
       <c r="M494" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0560356114166016</v>
       </c>
       <c r="O494" s="2">
@@ -29787,11 +29787,11 @@
         <v>85.810000000000059</v>
       </c>
       <c r="L495" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.78344193177462651</v>
       </c>
       <c r="M495" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.0963332055704615</v>
       </c>
       <c r="O495" s="2">
@@ -29845,11 +29845,11 @@
         <v>94.130000000000052</v>
       </c>
       <c r="L496" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.71477369769427845</v>
       </c>
       <c r="M496" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1483469562034898</v>
       </c>
       <c r="O496" s="2">
@@ -29903,11 +29903,11 @@
         <v>106.43</v>
       </c>
       <c r="L497" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62696838912865971</v>
       </c>
       <c r="M497" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2414557331155962</v>
       </c>
       <c r="O497" s="2">
@@ -29961,11 +29961,11 @@
         <v>114.36999999999998</v>
       </c>
       <c r="L498" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.60916558581928215</v>
       </c>
       <c r="M498" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2361651534803288</v>
       </c>
       <c r="O498" s="2">
@@ -30019,11 +30019,11 @@
         <v>128.32</v>
       </c>
       <c r="L499" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.53450651966500584</v>
       </c>
       <c r="M499" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.3603307537368814</v>
       </c>
       <c r="O499" s="2">
@@ -30077,11 +30077,11 @@
         <v>125.02000000000007</v>
       </c>
       <c r="L500" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.62455059065228535</v>
       </c>
       <c r="M500" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.2842321520287623</v>
       </c>
       <c r="O500" s="2">
@@ -30135,11 +30135,11 @@
         <v>116.10000000000008</v>
       </c>
       <c r="L501" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.75841844473657594</v>
       </c>
       <c r="M501" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1740317524522199</v>
       </c>
       <c r="O501" s="2">
@@ -30193,11 +30193,11 @@
         <v>110.75000000000006</v>
       </c>
       <c r="L502" s="6">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.82468281430219126</v>
       </c>
       <c r="M502" s="6">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1612666456957117</v>
       </c>
       <c r="O502" s="2">
@@ -30251,11 +30251,11 @@
         <v>102.32000000000005</v>
       </c>
       <c r="L503" s="11">
-        <f>testdata[[#This Row],[+VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14+]]/testdata[[#This Row],[TR14]]</f>
         <v>0.8711542657647825</v>
       </c>
       <c r="M503" s="11">
-        <f>testdata[[#This Row],[-VM14]]/testdata[[#This Row],[TR14]]</f>
+        <f>testdata[[#This Row],[VM14-]]/testdata[[#This Row],[TR14]]</f>
         <v>1.1162993672267081</v>
       </c>
       <c r="O503" s="2">
